--- a/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
+++ b/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
@@ -130,10 +130,10 @@
     <t>PER_BILL</t>
   </si>
   <si>
-    <t>Customs Clearance</t>
-  </si>
-  <si>
-    <t>CUST</t>
+    <t>Export Declaration</t>
+  </si>
+  <si>
+    <t>EXP</t>
   </si>
   <si>
     <t>Jeddah</t>

--- a/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
+++ b/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="83">
   <si>
     <t>EFFECTIVE_DATE</t>
   </si>
@@ -169,10 +169,10 @@
     <t>fastest</t>
   </si>
   <si>
-    <t>Beijing</t>
+    <t>cheapest</t>
   </si>
   <si>
-    <t>cheapest</t>
+    <t>Beijing</t>
   </si>
   <si>
     <t>China Filing</t>
@@ -249,6 +249,18 @@
   <si>
     <t>Xiamen</t>
   </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>E-Manifest</t>
+  </si>
+  <si>
+    <t>EMAN</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -354,6 +366,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1650,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>25</v>
@@ -1699,7 +1714,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>32</v>
@@ -1746,7 +1761,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>34</v>
@@ -1793,7 +1808,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>37</v>
@@ -1840,7 +1855,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>40</v>
@@ -1887,7 +1902,7 @@
         <v>50</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>43</v>
@@ -1931,10 +1946,10 @@
         <v>43592.0</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>34</v>
@@ -1985,10 +2000,10 @@
         <v>43592.0</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>37</v>
@@ -2039,10 +2054,10 @@
         <v>43592.0</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>25</v>
@@ -2097,10 +2112,10 @@
         <v>43592.0</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>32</v>
@@ -2153,10 +2168,10 @@
         <v>43592.0</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>40</v>
@@ -2209,10 +2224,10 @@
         <v>43592.0</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>43</v>
@@ -2265,7 +2280,7 @@
         <v>43592.0</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>51</v>
@@ -2323,7 +2338,7 @@
         <v>43592.0</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>51</v>
@@ -2379,7 +2394,7 @@
         <v>43592.0</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>51</v>
@@ -2435,7 +2450,7 @@
         <v>43592.0</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>51</v>
@@ -2491,7 +2506,7 @@
         <v>43592.0</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>51</v>
@@ -2545,7 +2560,7 @@
         <v>43592.0</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>51</v>
@@ -2599,7 +2614,7 @@
         <v>43592.0</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>51</v>
@@ -2656,7 +2671,7 @@
         <v>56</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>25</v>
@@ -2705,7 +2720,7 @@
         <v>56</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>32</v>
@@ -2752,7 +2767,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>34</v>
@@ -2799,7 +2814,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>37</v>
@@ -2853,7 +2868,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>40</v>
@@ -2900,7 +2915,7 @@
         <v>56</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>43</v>
@@ -3231,7 +3246,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
@@ -3280,7 +3295,7 @@
         <v>57</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>32</v>
@@ -3327,7 +3342,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>40</v>
@@ -3374,7 +3389,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>43</v>
@@ -3421,7 +3436,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>48</v>
@@ -3475,7 +3490,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>37</v>
@@ -4503,7 +4518,7 @@
         <v>60</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>48</v>
@@ -4557,7 +4572,7 @@
         <v>60</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>37</v>
@@ -4611,7 +4626,7 @@
         <v>60</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>25</v>
@@ -4660,7 +4675,7 @@
         <v>60</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>32</v>
@@ -4707,7 +4722,7 @@
         <v>60</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>34</v>
@@ -4754,7 +4769,7 @@
         <v>60</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>40</v>
@@ -4801,7 +4816,7 @@
         <v>60</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>43</v>
@@ -5538,7 +5553,7 @@
         <v>64</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>48</v>
@@ -5592,7 +5607,7 @@
         <v>64</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>37</v>
@@ -5646,7 +5661,7 @@
         <v>64</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>25</v>
@@ -5695,7 +5710,7 @@
         <v>64</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>32</v>
@@ -5742,7 +5757,7 @@
         <v>64</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>40</v>
@@ -5789,7 +5804,7 @@
         <v>64</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>43</v>
@@ -6824,7 +6839,7 @@
         <v>67</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>48</v>
@@ -6878,7 +6893,7 @@
         <v>67</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>37</v>
@@ -6932,7 +6947,7 @@
         <v>67</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>25</v>
@@ -6981,7 +6996,7 @@
         <v>67</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>32</v>
@@ -7028,7 +7043,7 @@
         <v>67</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>40</v>
@@ -7075,7 +7090,7 @@
         <v>67</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>43</v>
@@ -7420,7 +7435,7 @@
         <v>70</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>37</v>
@@ -7474,7 +7489,7 @@
         <v>70</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>25</v>
@@ -7523,7 +7538,7 @@
         <v>70</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>32</v>
@@ -7570,7 +7585,7 @@
         <v>70</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>34</v>
@@ -7617,7 +7632,7 @@
         <v>70</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>40</v>
@@ -7664,7 +7679,7 @@
         <v>70</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>43</v>
@@ -7711,7 +7726,7 @@
         <v>71</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>48</v>
@@ -7765,7 +7780,7 @@
         <v>71</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>37</v>
@@ -7819,7 +7834,7 @@
         <v>71</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>25</v>
@@ -7868,7 +7883,7 @@
         <v>71</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>32</v>
@@ -7915,7 +7930,7 @@
         <v>71</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>40</v>
@@ -7962,7 +7977,7 @@
         <v>71</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>43</v>
@@ -8307,7 +8322,7 @@
         <v>47</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>48</v>
@@ -8361,7 +8376,7 @@
         <v>47</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>37</v>
@@ -8415,7 +8430,7 @@
         <v>47</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>25</v>
@@ -8464,7 +8479,7 @@
         <v>47</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>32</v>
@@ -8511,7 +8526,7 @@
         <v>47</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>40</v>
@@ -8558,7 +8573,7 @@
         <v>47</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>43</v>
@@ -8903,7 +8918,7 @@
         <v>72</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>37</v>
@@ -8957,7 +8972,7 @@
         <v>72</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>25</v>
@@ -9006,7 +9021,7 @@
         <v>72</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>32</v>
@@ -9053,7 +9068,7 @@
         <v>72</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>34</v>
@@ -9100,7 +9115,7 @@
         <v>72</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>40</v>
@@ -9147,7 +9162,7 @@
         <v>72</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>43</v>
@@ -9539,7 +9554,7 @@
         <v>73</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>48</v>
@@ -9593,7 +9608,7 @@
         <v>73</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>74</v>
@@ -9647,7 +9662,7 @@
         <v>73</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>37</v>
@@ -9701,7 +9716,7 @@
         <v>73</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>25</v>
@@ -9750,7 +9765,7 @@
         <v>73</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>32</v>
@@ -9797,7 +9812,7 @@
         <v>73</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>34</v>
@@ -9844,7 +9859,7 @@
         <v>73</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>40</v>
@@ -9891,7 +9906,7 @@
         <v>73</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>43</v>
@@ -10283,7 +10298,7 @@
         <v>78</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>34</v>
@@ -10337,7 +10352,7 @@
         <v>78</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>37</v>
@@ -10393,7 +10408,7 @@
         <v>78</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E203" s="16" t="s">
         <v>25</v>
@@ -10451,7 +10466,7 @@
         <v>78</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E204" s="16" t="s">
         <v>32</v>
@@ -10507,7 +10522,7 @@
         <v>78</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>40</v>
@@ -10563,7 +10578,7 @@
         <v>78</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>43</v>
@@ -11336,6 +11351,615 @@
         <v>25.0</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B221" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K221" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M221" s="6"/>
+      <c r="N221" s="4">
+        <v>0.047</v>
+      </c>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="W221" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B222" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L222" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="4">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B223" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B224" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K224" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L224" s="6"/>
+      <c r="M224" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B225" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="R225" s="6"/>
+      <c r="S225" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B226" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B227" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K227" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M227" s="6"/>
+      <c r="N227" s="4">
+        <v>0.047</v>
+      </c>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="W227" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B228" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L228" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="4">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B229" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B230" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L230" s="6"/>
+      <c r="M230" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B231" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="R231" s="6"/>
+      <c r="S231" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B232" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="20">
+        <v>43256.0</v>
+      </c>
+      <c r="B233" s="20">
+        <v>43621.0</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P233" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="S233" s="5">
+        <v>35.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
+++ b/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="90">
   <si>
     <t>EFFECTIVE_DATE</t>
   </si>
@@ -434,7 +434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="3">
         <v>43227.0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="3">
         <v>43227.0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="3">
         <v>43248.0</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="3">
         <v>43227.0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="3">
         <v>43227.0</v>
       </c>
@@ -644,7 +644,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="3">
         <v>43227.0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="3">
         <v>43227.0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="3">
         <v>43227.0</v>
       </c>
@@ -770,7 +770,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="3">
         <v>43227.0</v>
       </c>
@@ -811,7 +811,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="3">
         <v>43227.0</v>
       </c>
@@ -852,7 +852,7 @@
         <v>6.0</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="3">
         <v>43227.0</v>
       </c>
@@ -893,7 +893,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="3">
         <v>43227.0</v>
       </c>
@@ -934,7 +934,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="3">
         <v>43227.0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="3">
         <v>43227.0</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="3">
         <v>43227.0</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="3">
         <v>43227.0</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="3">
         <v>43227.0</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="3">
         <v>43227.0</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="3">
         <v>43227.0</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="3">
         <v>43227.0</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="3">
         <v>43227.0</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="3">
         <v>43227.0</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="3">
         <v>43227.0</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="3">
         <v>43227.0</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="3">
         <v>43227.0</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="3">
         <v>43227.0</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="3">
         <v>43227.0</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="3">
         <v>43227.0</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="3">
         <v>43227.0</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="3">
         <v>43247.0</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="3">
         <v>43227.0</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="3">
         <v>43227.0</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="3">
         <v>43227.0</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="3">
         <v>43227.0</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="3">
         <v>43227.0</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="3">
         <v>43227.0</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="3">
         <v>43227.0</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="3">
         <v>43227.0</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="3">
         <v>43227.0</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="3">
         <v>43227.0</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="3">
         <v>43227.0</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="3">
         <v>43227.0</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="44" hidden="1">
+    <row r="44">
       <c r="A44" s="3">
         <v>43227.0</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="45" hidden="1">
+    <row r="45">
       <c r="A45" s="3">
         <v>43232.0</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="3">
         <v>43233.0</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="3">
         <v>43227.0</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="48" hidden="1">
+    <row r="48">
       <c r="A48" s="3">
         <v>43227.0</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="3">
         <v>43227.0</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="3">
         <v>43227.0</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="3">
         <v>43227.0</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="3">
         <v>43227.0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="53" hidden="1">
+    <row r="53">
       <c r="A53" s="3">
         <v>43227.0</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="3">
         <v>43227.0</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="3">
         <v>43227.0</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="3">
         <v>43227.0</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="3">
         <v>43227.0</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" hidden="1">
+    <row r="58">
       <c r="A58" s="3">
         <v>43227.0</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="65" hidden="1">
+    <row r="65">
       <c r="A65" s="3">
         <v>43227.0</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="3">
         <v>43227.0</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" hidden="1">
+    <row r="67">
       <c r="A67" s="3">
         <v>43227.0</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="3">
         <v>43227.0</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="3">
         <v>43227.0</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="3">
         <v>43227.0</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="71" hidden="1">
+    <row r="71">
       <c r="A71" s="3">
         <v>43227.0</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="3">
         <v>43234.0</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="3">
         <v>43235.0</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="3">
         <v>43227.0</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="3">
         <v>43227.0</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="76" hidden="1">
+    <row r="76">
       <c r="A76" s="3">
         <v>43227.0</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="3">
         <v>43227.0</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="78" hidden="1">
+    <row r="78">
       <c r="A78" s="3">
         <v>43227.0</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>7.0</v>
       </c>
     </row>
-    <row r="79" hidden="1">
+    <row r="79">
       <c r="A79" s="3">
         <v>43227.0</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80">
       <c r="A80" s="3">
         <v>43227.0</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="81" hidden="1">
+    <row r="81">
       <c r="A81" s="3">
         <v>43227.0</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="82" hidden="1">
+    <row r="82">
       <c r="A82" s="3">
         <v>43227.0</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="83" hidden="1">
+    <row r="83">
       <c r="A83" s="3">
         <v>43227.0</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="84" hidden="1">
+    <row r="84">
       <c r="A84" s="3">
         <v>43227.0</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="85" hidden="1">
+    <row r="85">
       <c r="A85" s="3">
         <v>43227.0</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="86" hidden="1">
+    <row r="86">
       <c r="A86" s="3">
         <v>43227.0</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="3">
         <v>43227.0</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="88" hidden="1">
+    <row r="88">
       <c r="A88" s="3">
         <v>43227.0</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="89" hidden="1">
+    <row r="89">
       <c r="A89" s="3">
         <v>43227.0</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="90" hidden="1">
+    <row r="90">
       <c r="A90" s="3">
         <v>43227.0</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="91" hidden="1">
+    <row r="91">
       <c r="A91" s="3">
         <v>43227.0</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="92" hidden="1">
+    <row r="92">
       <c r="A92" s="3">
         <v>43227.0</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="93" hidden="1">
+    <row r="93">
       <c r="A93" s="3">
         <v>43227.0</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="94" hidden="1">
+    <row r="94">
       <c r="A94" s="3">
         <v>43227.0</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="95" hidden="1">
+    <row r="95">
       <c r="A95" s="3">
         <v>43227.0</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="96" hidden="1">
+    <row r="96">
       <c r="A96" s="3">
         <v>43227.0</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="97" hidden="1">
+    <row r="97">
       <c r="A97" s="3">
         <v>43227.0</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="98" hidden="1">
+    <row r="98">
       <c r="A98" s="3">
         <v>43227.0</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="99" hidden="1">
+    <row r="99">
       <c r="A99" s="3">
         <v>43227.0</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="100" hidden="1">
+    <row r="100">
       <c r="A100" s="3">
         <v>43227.0</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="101" hidden="1">
+    <row r="101">
       <c r="A101" s="3">
         <v>43251.0</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" hidden="1">
+    <row r="102">
       <c r="A102" s="3">
         <v>43252.0</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" hidden="1">
+    <row r="103">
       <c r="A103" s="3">
         <v>43227.0</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" hidden="1">
+    <row r="104">
       <c r="A104" s="3">
         <v>43227.0</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" hidden="1">
+    <row r="105">
       <c r="A105" s="3">
         <v>43227.0</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="106" hidden="1">
+    <row r="106">
       <c r="A106" s="3">
         <v>43227.0</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="107" hidden="1">
+    <row r="107">
       <c r="A107" s="3">
         <v>43227.0</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="108" hidden="1">
+    <row r="108">
       <c r="A108" s="3">
         <v>43227.0</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="109" hidden="1">
+    <row r="109">
       <c r="A109" s="3">
         <v>43227.0</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" hidden="1">
+    <row r="110">
       <c r="A110" s="3">
         <v>43227.0</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" hidden="1">
+    <row r="111">
       <c r="A111" s="3">
         <v>43227.0</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="112" hidden="1">
+    <row r="112">
       <c r="A112" s="3">
         <v>43227.0</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="113" hidden="1">
+    <row r="113">
       <c r="A113" s="3">
         <v>43227.0</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="114" hidden="1">
+    <row r="114">
       <c r="A114" s="3">
         <v>43227.0</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="115" hidden="1">
+    <row r="115">
       <c r="A115" s="3">
         <v>43227.0</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="116" hidden="1">
+    <row r="116">
       <c r="A116" s="3">
         <v>43227.0</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="117" hidden="1">
+    <row r="117">
       <c r="A117" s="3">
         <v>43227.0</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="118" hidden="1">
+    <row r="118">
       <c r="A118" s="3">
         <v>43227.0</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="119" hidden="1">
+    <row r="119">
       <c r="A119" s="3">
         <v>43227.0</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="120" hidden="1">
+    <row r="120">
       <c r="A120" s="3">
         <v>43253.0</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" hidden="1">
+    <row r="121">
       <c r="A121" s="3">
         <v>43254.0</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" hidden="1">
+    <row r="122">
       <c r="A122" s="3">
         <v>43227.0</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="123" hidden="1">
+    <row r="123">
       <c r="A123" s="3">
         <v>43227.0</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="124" hidden="1">
+    <row r="124">
       <c r="A124" s="3">
         <v>43227.0</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="125" hidden="1">
+    <row r="125">
       <c r="A125" s="3">
         <v>43227.0</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="126" hidden="1">
+    <row r="126">
       <c r="A126" s="3">
         <v>43227.0</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="127" hidden="1">
+    <row r="127">
       <c r="A127" s="3">
         <v>43253.0</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" hidden="1">
+    <row r="128">
       <c r="A128" s="3">
         <v>43254.0</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" hidden="1">
+    <row r="129">
       <c r="A129" s="3">
         <v>43228.0</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" hidden="1">
+    <row r="130">
       <c r="A130" s="3">
         <v>43229.0</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" hidden="1">
+    <row r="131">
       <c r="A131" s="3">
         <v>43227.0</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="132" hidden="1">
+    <row r="132">
       <c r="A132" s="3">
         <v>43227.0</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="133" hidden="1">
+    <row r="133">
       <c r="A133" s="3">
         <v>43227.0</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="134" hidden="1">
+    <row r="134">
       <c r="A134" s="3">
         <v>43227.0</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="135" hidden="1">
+    <row r="135">
       <c r="A135" s="3">
         <v>43230.0</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" hidden="1">
+    <row r="136">
       <c r="A136" s="3">
         <v>43231.0</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" hidden="1">
+    <row r="137">
       <c r="A137" s="3">
         <v>43227.0</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="138" hidden="1">
+    <row r="138">
       <c r="A138" s="3">
         <v>43227.0</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="139" hidden="1">
+    <row r="139">
       <c r="A139" s="3">
         <v>43227.0</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="140" hidden="1">
+    <row r="140">
       <c r="A140" s="3">
         <v>43227.0</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="141" hidden="1">
+    <row r="141">
       <c r="A141" s="3">
         <v>43227.0</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" hidden="1">
+    <row r="142">
       <c r="A142" s="3">
         <v>43227.0</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="143" hidden="1">
+    <row r="143">
       <c r="A143" s="3">
         <v>43227.0</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="144" hidden="1">
+    <row r="144">
       <c r="A144" s="3">
         <v>43227.0</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="145" hidden="1">
+    <row r="145">
       <c r="A145" s="3">
         <v>43227.0</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="146" hidden="1">
+    <row r="146">
       <c r="A146" s="3">
         <v>43227.0</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="147" hidden="1">
+    <row r="147">
       <c r="A147" s="3">
         <v>43243.0</v>
       </c>
@@ -6587,7 +6587,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" hidden="1">
+    <row r="148">
       <c r="A148" s="3">
         <v>43244.0</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" hidden="1">
+    <row r="149">
       <c r="A149" s="3">
         <v>43227.0</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="150" hidden="1">
+    <row r="150">
       <c r="A150" s="3">
         <v>43227.0</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="151" hidden="1">
+    <row r="151">
       <c r="A151" s="3">
         <v>43227.0</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="152" hidden="1">
+    <row r="152">
       <c r="A152" s="3">
         <v>43227.0</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="153" hidden="1">
+    <row r="153">
       <c r="A153" s="3">
         <v>43245.0</v>
       </c>
@@ -6840,7 +6840,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" hidden="1">
+    <row r="154">
       <c r="A154" s="3">
         <v>43246.0</v>
       </c>
@@ -6883,7 +6883,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" hidden="1">
+    <row r="155">
       <c r="A155" s="3">
         <v>43227.0</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="156" hidden="1">
+    <row r="156">
       <c r="A156" s="3">
         <v>43227.0</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="157" hidden="1">
+    <row r="157">
       <c r="A157" s="3">
         <v>43227.0</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="158" hidden="1">
+    <row r="158">
       <c r="A158" s="3">
         <v>43227.0</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="159" hidden="1">
+    <row r="159">
       <c r="A159" s="3">
         <v>43227.0</v>
       </c>
@@ -7093,7 +7093,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" hidden="1">
+    <row r="160">
       <c r="A160" s="3">
         <v>43227.0</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" hidden="1">
+    <row r="161">
       <c r="A161" s="3">
         <v>43227.0</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="162" hidden="1">
+    <row r="162">
       <c r="A162" s="3">
         <v>43227.0</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="163" hidden="1">
+    <row r="163">
       <c r="A163" s="3">
         <v>43227.0</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="164" hidden="1">
+    <row r="164">
       <c r="A164" s="3">
         <v>43227.0</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="165" hidden="1">
+    <row r="165">
       <c r="A165" s="3">
         <v>43227.0</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" hidden="1">
+    <row r="166">
       <c r="A166" s="3">
         <v>43227.0</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" hidden="1">
+    <row r="167">
       <c r="A167" s="3">
         <v>43227.0</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="168" hidden="1">
+    <row r="168">
       <c r="A168" s="3">
         <v>43227.0</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="169" hidden="1">
+    <row r="169">
       <c r="A169" s="3">
         <v>43227.0</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="170" hidden="1">
+    <row r="170">
       <c r="A170" s="3">
         <v>43227.0</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="171" hidden="1">
+    <row r="171">
       <c r="A171" s="3">
         <v>43227.0</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="172" hidden="1">
+    <row r="172">
       <c r="A172" s="3">
         <v>43227.0</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="173" hidden="1">
+    <row r="173">
       <c r="A173" s="3">
         <v>43227.0</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="174" hidden="1">
+    <row r="174">
       <c r="A174" s="3">
         <v>43227.0</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="175" hidden="1">
+    <row r="175">
       <c r="A175" s="3">
         <v>43227.0</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="176" hidden="1">
+    <row r="176">
       <c r="A176" s="3">
         <v>43227.0</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="177" hidden="1">
+    <row r="177">
       <c r="A177" s="3">
         <v>43227.0</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="178" hidden="1">
+    <row r="178">
       <c r="A178" s="3">
         <v>43227.0</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="179" hidden="1">
+    <row r="179">
       <c r="A179" s="3">
         <v>43227.0</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="180" hidden="1">
+    <row r="180">
       <c r="A180" s="3">
         <v>43227.0</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="181" hidden="1">
+    <row r="181">
       <c r="A181" s="3">
         <v>43227.0</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="182" hidden="1">
+    <row r="182">
       <c r="A182" s="3">
         <v>43227.0</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="183" hidden="1">
+    <row r="183">
       <c r="A183" s="3">
         <v>43227.0</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" hidden="1">
+    <row r="184">
       <c r="A184" s="3">
         <v>43227.0</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="185" hidden="1">
+    <row r="185">
       <c r="A185" s="3">
         <v>43227.0</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="186" hidden="1">
+    <row r="186">
       <c r="A186" s="3">
         <v>43227.0</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="187" hidden="1">
+    <row r="187">
       <c r="A187" s="3">
         <v>43227.0</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="188" hidden="1">
+    <row r="188">
       <c r="A188" s="3">
         <v>43227.0</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="189" hidden="1">
+    <row r="189">
       <c r="A189" s="3">
         <v>43227.0</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" hidden="1">
+    <row r="190">
       <c r="A190" s="3">
         <v>43227.0</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="191" hidden="1">
+    <row r="191">
       <c r="A191" s="3">
         <v>43227.0</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="192" hidden="1">
+    <row r="192">
       <c r="A192" s="3">
         <v>43227.0</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="193" hidden="1">
+    <row r="193">
       <c r="A193" s="3">
         <v>43227.0</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="194" hidden="1">
+    <row r="194">
       <c r="A194" s="3">
         <v>43227.0</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="195" hidden="1">
+    <row r="195">
       <c r="A195" s="3">
         <v>43227.0</v>
       </c>
@@ -8599,7 +8599,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" hidden="1">
+    <row r="196">
       <c r="A196" s="3">
         <v>43236.0</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" hidden="1">
+    <row r="197">
       <c r="A197" s="3">
         <v>43237.0</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" hidden="1">
+    <row r="198">
       <c r="A198" s="3">
         <v>43238.0</v>
       </c>
@@ -8728,7 +8728,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" hidden="1">
+    <row r="199">
       <c r="A199" s="3">
         <v>43227.0</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="200" hidden="1">
+    <row r="200">
       <c r="A200" s="3">
         <v>43227.0</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="201" hidden="1">
+    <row r="201">
       <c r="A201" s="3">
         <v>43227.0</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="202" hidden="1">
+    <row r="202">
       <c r="A202" s="3">
         <v>43227.0</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="203" hidden="1">
+    <row r="203">
       <c r="A203" s="3">
         <v>43227.0</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="204" hidden="1">
+    <row r="204">
       <c r="A204" s="3">
         <v>43239.0</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205" hidden="1">
+    <row r="205">
       <c r="A205" s="3">
         <v>43240.0</v>
       </c>
@@ -9022,7 +9022,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206" hidden="1">
+    <row r="206">
       <c r="A206" s="3">
         <v>43227.0</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="207" hidden="1">
+    <row r="207">
       <c r="A207" s="3">
         <v>43227.0</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="208" hidden="1">
+    <row r="208">
       <c r="A208" s="3">
         <v>43227.0</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="209" hidden="1">
+    <row r="209">
       <c r="A209" s="3">
         <v>43227.0</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="210" hidden="1">
+    <row r="210">
       <c r="A210" s="3">
         <v>43227.0</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="211" hidden="1">
+    <row r="211">
       <c r="A211" s="3">
         <v>43227.0</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="212" hidden="1">
+    <row r="212">
       <c r="A212" s="3">
         <v>43227.0</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="213" hidden="1">
+    <row r="213">
       <c r="A213" s="3">
         <v>43227.0</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>7.0</v>
       </c>
     </row>
-    <row r="214" hidden="1">
+    <row r="214">
       <c r="A214" s="3">
         <v>43227.0</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="215" hidden="1">
+    <row r="215">
       <c r="A215" s="3">
         <v>43227.0</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="216" hidden="1">
+    <row r="216">
       <c r="A216" s="3">
         <v>43227.0</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="217" hidden="1">
+    <row r="217">
       <c r="A217" s="3">
         <v>43256.0</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="218" hidden="1">
+    <row r="218">
       <c r="A218" s="3">
         <v>43227.0</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="219" hidden="1">
+    <row r="219">
       <c r="A219" s="3">
         <v>43227.0</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="220" hidden="1">
+    <row r="220">
       <c r="A220" s="3">
         <v>43227.0</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="221" hidden="1">
+    <row r="221">
       <c r="A221" s="3">
         <v>43227.0</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="222" hidden="1">
+    <row r="222">
       <c r="A222" s="3">
         <v>43227.0</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="223" hidden="1">
+    <row r="223">
       <c r="A223" s="3">
         <v>43227.0</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="224" hidden="1">
+    <row r="224">
       <c r="A224" s="3">
         <v>43227.0</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
     </row>
-    <row r="225" hidden="1">
+    <row r="225">
       <c r="A225" s="3">
         <v>43227.0</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="AA225" s="4"/>
       <c r="AB225" s="4"/>
     </row>
-    <row r="226" hidden="1">
+    <row r="226">
       <c r="A226" s="3">
         <v>43227.0</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="AA226" s="4"/>
       <c r="AB226" s="4"/>
     </row>
-    <row r="227" hidden="1">
+    <row r="227">
       <c r="A227" s="3">
         <v>43227.0</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="AA227" s="4"/>
       <c r="AB227" s="4"/>
     </row>
-    <row r="228" hidden="1">
+    <row r="228">
       <c r="A228" s="3">
         <v>43227.0</v>
       </c>
@@ -9995,7 +9995,7 @@
       <c r="AA228" s="4"/>
       <c r="AB228" s="4"/>
     </row>
-    <row r="229" hidden="1">
+    <row r="229">
       <c r="A229" s="3">
         <v>43227.0</v>
       </c>
@@ -10040,7 +10040,7 @@
       <c r="AA229" s="4"/>
       <c r="AB229" s="4"/>
     </row>
-    <row r="230" hidden="1">
+    <row r="230">
       <c r="A230" s="3">
         <v>43227.0</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="Y230" s="4"/>
       <c r="Z230" s="4"/>
     </row>
-    <row r="231" hidden="1">
+    <row r="231">
       <c r="A231" s="3">
         <v>43227.0</v>
       </c>
@@ -10126,7 +10126,7 @@
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
     </row>
-    <row r="232" hidden="1">
+    <row r="232">
       <c r="A232" s="3">
         <v>43227.0</v>
       </c>
@@ -10171,7 +10171,7 @@
       <c r="AA232" s="4"/>
       <c r="AB232" s="4"/>
     </row>
-    <row r="233" hidden="1">
+    <row r="233">
       <c r="A233" s="3">
         <v>43227.0</v>
       </c>
@@ -10219,7 +10219,7 @@
       <c r="AA233" s="4"/>
       <c r="AB233" s="4"/>
     </row>
-    <row r="234" hidden="1">
+    <row r="234">
       <c r="A234" s="3">
         <v>43227.0</v>
       </c>
@@ -10264,7 +10264,7 @@
       <c r="AA234" s="4"/>
       <c r="AB234" s="4"/>
     </row>
-    <row r="235" hidden="1">
+    <row r="235">
       <c r="A235" s="3">
         <v>43227.0</v>
       </c>
@@ -10309,7 +10309,7 @@
       <c r="AA235" s="4"/>
       <c r="AB235" s="4"/>
     </row>
-    <row r="236" hidden="1">
+    <row r="236">
       <c r="A236" s="3">
         <v>43227.0</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="AA236" s="4"/>
       <c r="AB236" s="4"/>
     </row>
-    <row r="237" hidden="1">
+    <row r="237">
       <c r="A237" s="3">
         <v>43227.0</v>
       </c>
@@ -10397,7 +10397,7 @@
       <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
     </row>
-    <row r="238" hidden="1">
+    <row r="238">
       <c r="A238" s="3">
         <v>43227.0</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="239" hidden="1">
+    <row r="239">
       <c r="A239" s="3">
         <v>43227.0</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="240" hidden="1">
+    <row r="240">
       <c r="A240" s="3">
         <v>43227.0</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="241" hidden="1">
+    <row r="241">
       <c r="A241" s="3">
         <v>43227.0</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="242" hidden="1">
+    <row r="242">
       <c r="A242" s="3">
         <v>43227.0</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="243" hidden="1">
+    <row r="243">
       <c r="A243" s="3">
         <v>43227.0</v>
       </c>
@@ -10646,1539 +10646,619 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="244" hidden="1">
+    <row r="244">
       <c r="A244" s="3">
         <v>43227.0</v>
       </c>
       <c r="B244" s="3">
         <v>43592.0</v>
       </c>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E244" s="1" t="s">
+      <c r="C244" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D244" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" t="s">
+        <v>36</v>
+      </c>
+      <c r="F244" t="s">
+        <v>28</v>
+      </c>
+      <c r="G244" t="s">
+        <v>37</v>
+      </c>
+      <c r="H244" t="s">
+        <v>30</v>
+      </c>
+      <c r="I244" t="s">
+        <v>31</v>
+      </c>
+      <c r="J244" t="s">
+        <v>32</v>
+      </c>
+      <c r="K244" t="s">
+        <v>38</v>
+      </c>
+      <c r="P244" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="S244" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B245" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D245" t="s">
+        <v>49</v>
+      </c>
+      <c r="E245" t="s">
+        <v>42</v>
+      </c>
+      <c r="F245" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
+        <v>43</v>
+      </c>
+      <c r="H245" t="s">
+        <v>30</v>
+      </c>
+      <c r="I245" t="s">
+        <v>31</v>
+      </c>
+      <c r="J245" t="s">
+        <v>32</v>
+      </c>
+      <c r="K245" t="s">
+        <v>44</v>
+      </c>
+      <c r="M245" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="S245" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B246" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D246" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" t="s">
         <v>27</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G244" s="1" t="s">
+      <c r="F246" t="s">
+        <v>28</v>
+      </c>
+      <c r="G246" t="s">
         <v>29</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J244" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K244" s="1" t="s">
+      <c r="H246" t="s">
+        <v>30</v>
+      </c>
+      <c r="I246" t="s">
+        <v>31</v>
+      </c>
+      <c r="J246" t="s">
+        <v>32</v>
+      </c>
+      <c r="K246" t="s">
         <v>33</v>
       </c>
-      <c r="N244" s="1">
+      <c r="N246">
         <v>0.047</v>
       </c>
-      <c r="S244" s="1">
+      <c r="S246">
         <v>47.0</v>
       </c>
-      <c r="W244" s="1">
+      <c r="W246">
         <v>100.0</v>
       </c>
     </row>
-    <row r="245" hidden="1">
-      <c r="A245" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B245" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E245" s="1" t="s">
+    <row r="247">
+      <c r="A247" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B247" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D247" t="s">
+        <v>49</v>
+      </c>
+      <c r="E247" t="s">
         <v>34</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J245" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K245" s="1" t="s">
+      <c r="F247" t="s">
+        <v>28</v>
+      </c>
+      <c r="G247" t="s">
+        <v>30</v>
+      </c>
+      <c r="H247" t="s">
+        <v>30</v>
+      </c>
+      <c r="I247" t="s">
+        <v>31</v>
+      </c>
+      <c r="J247" t="s">
+        <v>32</v>
+      </c>
+      <c r="K247" t="s">
         <v>35</v>
       </c>
-      <c r="L245" s="1">
+      <c r="L247">
         <v>42.0</v>
       </c>
-      <c r="S245" s="1">
+      <c r="S247">
         <v>42.0</v>
       </c>
     </row>
-    <row r="246" hidden="1">
-      <c r="A246" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B246" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E246" s="1" t="s">
+    <row r="248">
+      <c r="A248" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B248" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D248" t="s">
+        <v>49</v>
+      </c>
+      <c r="E248" t="s">
+        <v>45</v>
+      </c>
+      <c r="F248" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" t="s">
+        <v>46</v>
+      </c>
+      <c r="H248" t="s">
+        <v>30</v>
+      </c>
+      <c r="I248" t="s">
+        <v>31</v>
+      </c>
+      <c r="J248" t="s">
+        <v>32</v>
+      </c>
+      <c r="K248" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q248">
+        <v>18.0</v>
+      </c>
+      <c r="S248">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B249" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D249" t="s">
+        <v>49</v>
+      </c>
+      <c r="E249" t="s">
+        <v>47</v>
+      </c>
+      <c r="F249" t="s">
+        <v>28</v>
+      </c>
+      <c r="G249" t="s">
+        <v>48</v>
+      </c>
+      <c r="H249" t="s">
+        <v>30</v>
+      </c>
+      <c r="I249" t="s">
+        <v>31</v>
+      </c>
+      <c r="J249" t="s">
+        <v>32</v>
+      </c>
+      <c r="K249" t="s">
+        <v>38</v>
+      </c>
+      <c r="P249">
+        <v>25.0</v>
+      </c>
+      <c r="S249">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B250" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" t="s">
         <v>36</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G246" s="1" t="s">
+      <c r="F250" t="s">
+        <v>28</v>
+      </c>
+      <c r="G250" t="s">
         <v>37</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K246" s="1" t="s">
+      <c r="H250" t="s">
+        <v>30</v>
+      </c>
+      <c r="I250" t="s">
+        <v>31</v>
+      </c>
+      <c r="J250" t="s">
+        <v>32</v>
+      </c>
+      <c r="K250" t="s">
         <v>38</v>
       </c>
-      <c r="P246" s="1">
+      <c r="P250" s="2">
         <v>5.0</v>
       </c>
-      <c r="S246" s="1">
+      <c r="S250" s="2">
         <v>5.0</v>
       </c>
     </row>
-    <row r="247" hidden="1">
-      <c r="A247" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B247" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E247" s="1" t="s">
+    <row r="251">
+      <c r="A251" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B251" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D251" t="s">
+        <v>26</v>
+      </c>
+      <c r="E251" t="s">
+        <v>51</v>
+      </c>
+      <c r="F251" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" t="s">
+        <v>52</v>
+      </c>
+      <c r="H251" t="s">
+        <v>30</v>
+      </c>
+      <c r="I251" t="s">
+        <v>31</v>
+      </c>
+      <c r="J251" t="s">
+        <v>32</v>
+      </c>
+      <c r="K251" t="s">
+        <v>38</v>
+      </c>
+      <c r="P251">
+        <v>8.5</v>
+      </c>
+      <c r="S251">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B252" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D252" t="s">
+        <v>26</v>
+      </c>
+      <c r="E252" t="s">
         <v>42</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G247" s="1" t="s">
+      <c r="F252" t="s">
+        <v>28</v>
+      </c>
+      <c r="G252" t="s">
         <v>43</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J247" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K247" s="1" t="s">
+      <c r="H252" t="s">
+        <v>30</v>
+      </c>
+      <c r="I252" t="s">
+        <v>31</v>
+      </c>
+      <c r="J252" t="s">
+        <v>32</v>
+      </c>
+      <c r="K252" t="s">
         <v>44</v>
       </c>
-      <c r="M247" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="S247" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="248" hidden="1">
-      <c r="A248" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B248" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E248" s="1" t="s">
+      <c r="M252" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="S252" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B253" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D253" t="s">
+        <v>26</v>
+      </c>
+      <c r="E253" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" t="s">
+        <v>28</v>
+      </c>
+      <c r="G253" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" t="s">
+        <v>30</v>
+      </c>
+      <c r="I253" t="s">
+        <v>31</v>
+      </c>
+      <c r="J253" t="s">
+        <v>32</v>
+      </c>
+      <c r="K253" t="s">
+        <v>33</v>
+      </c>
+      <c r="N253">
+        <v>0.047</v>
+      </c>
+      <c r="S253">
+        <v>47.0</v>
+      </c>
+      <c r="W253">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B254" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D254" t="s">
+        <v>26</v>
+      </c>
+      <c r="E254" t="s">
+        <v>34</v>
+      </c>
+      <c r="F254" t="s">
+        <v>28</v>
+      </c>
+      <c r="G254" t="s">
+        <v>30</v>
+      </c>
+      <c r="H254" t="s">
+        <v>30</v>
+      </c>
+      <c r="I254" t="s">
+        <v>31</v>
+      </c>
+      <c r="J254" t="s">
+        <v>32</v>
+      </c>
+      <c r="K254" t="s">
+        <v>35</v>
+      </c>
+      <c r="L254">
+        <v>42.0</v>
+      </c>
+      <c r="S254">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B255" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D255" t="s">
+        <v>26</v>
+      </c>
+      <c r="E255" t="s">
         <v>45</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G248" s="1" t="s">
+      <c r="F255" t="s">
+        <v>28</v>
+      </c>
+      <c r="G255" t="s">
         <v>46</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K248" s="1" t="s">
+      <c r="H255" t="s">
+        <v>30</v>
+      </c>
+      <c r="I255" t="s">
+        <v>31</v>
+      </c>
+      <c r="J255" t="s">
+        <v>32</v>
+      </c>
+      <c r="K255" t="s">
         <v>41</v>
       </c>
-      <c r="Q248" s="1">
+      <c r="Q255">
         <v>18.0</v>
       </c>
-      <c r="S248" s="1">
+      <c r="S255">
         <v>18.0</v>
       </c>
     </row>
-    <row r="249" hidden="1">
-      <c r="A249" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B249" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E249" s="1" t="s">
+    <row r="256">
+      <c r="A256" s="3">
+        <v>43227.0</v>
+      </c>
+      <c r="B256" s="3">
+        <v>43592.0</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D256" t="s">
+        <v>26</v>
+      </c>
+      <c r="E256" t="s">
         <v>47</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G249" s="1" t="s">
+      <c r="F256" t="s">
+        <v>28</v>
+      </c>
+      <c r="G256" t="s">
         <v>48</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J249" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K249" s="1" t="s">
+      <c r="H256" t="s">
+        <v>30</v>
+      </c>
+      <c r="I256" t="s">
+        <v>31</v>
+      </c>
+      <c r="J256" t="s">
+        <v>32</v>
+      </c>
+      <c r="K256" t="s">
         <v>38</v>
       </c>
-      <c r="P249" s="1">
+      <c r="P256">
         <v>25.0</v>
       </c>
-      <c r="S249" s="1">
+      <c r="S256">
         <v>25.0</v>
       </c>
     </row>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
-    <row r="285" hidden="1"/>
-    <row r="286" hidden="1"/>
-    <row r="287" hidden="1"/>
-    <row r="288" hidden="1"/>
-    <row r="289" hidden="1"/>
-    <row r="290" hidden="1"/>
-    <row r="291" hidden="1"/>
-    <row r="292" hidden="1"/>
-    <row r="293" hidden="1"/>
-    <row r="294" hidden="1"/>
-    <row r="295" hidden="1"/>
-    <row r="296" hidden="1"/>
-    <row r="297" hidden="1"/>
-    <row r="298" hidden="1"/>
-    <row r="299" hidden="1"/>
-    <row r="300" hidden="1"/>
-    <row r="301" hidden="1"/>
-    <row r="302" hidden="1"/>
-    <row r="303" hidden="1"/>
-    <row r="304" hidden="1"/>
-    <row r="305" hidden="1"/>
-    <row r="306" hidden="1"/>
-    <row r="307" hidden="1"/>
-    <row r="308" hidden="1"/>
-    <row r="309" hidden="1"/>
-    <row r="310" hidden="1"/>
-    <row r="311" hidden="1"/>
-    <row r="312" hidden="1"/>
-    <row r="313" hidden="1"/>
-    <row r="314" hidden="1"/>
-    <row r="315" hidden="1"/>
-    <row r="316" hidden="1"/>
-    <row r="317" hidden="1"/>
-    <row r="318" hidden="1"/>
-    <row r="319" hidden="1"/>
-    <row r="320" hidden="1"/>
-    <row r="321" hidden="1"/>
-    <row r="322" hidden="1"/>
-    <row r="323" hidden="1"/>
-    <row r="324" hidden="1"/>
-    <row r="325" hidden="1"/>
-    <row r="326" hidden="1"/>
-    <row r="327" hidden="1"/>
-    <row r="328" hidden="1"/>
-    <row r="329" hidden="1"/>
-    <row r="330" hidden="1"/>
-    <row r="331" hidden="1"/>
-    <row r="332" hidden="1"/>
-    <row r="333" hidden="1"/>
-    <row r="334" hidden="1"/>
-    <row r="335" hidden="1"/>
-    <row r="336" hidden="1"/>
-    <row r="337" hidden="1"/>
-    <row r="338" hidden="1"/>
-    <row r="339" hidden="1"/>
-    <row r="340" hidden="1"/>
-    <row r="341" hidden="1"/>
-    <row r="342" hidden="1"/>
-    <row r="343" hidden="1"/>
-    <row r="344" hidden="1"/>
-    <row r="345" hidden="1"/>
-    <row r="346" hidden="1"/>
-    <row r="347" hidden="1"/>
-    <row r="348" hidden="1"/>
-    <row r="349" hidden="1"/>
-    <row r="350" hidden="1"/>
-    <row r="351" hidden="1"/>
-    <row r="352" hidden="1"/>
-    <row r="353" hidden="1"/>
-    <row r="354" hidden="1"/>
-    <row r="355" hidden="1"/>
-    <row r="356" hidden="1"/>
-    <row r="357" hidden="1"/>
-    <row r="358" hidden="1"/>
-    <row r="359" hidden="1"/>
-    <row r="360" hidden="1"/>
-    <row r="361" hidden="1"/>
-    <row r="362" hidden="1"/>
-    <row r="363" hidden="1"/>
-    <row r="364" hidden="1"/>
-    <row r="365" hidden="1"/>
-    <row r="366" hidden="1"/>
-    <row r="367" hidden="1"/>
-    <row r="368" hidden="1"/>
-    <row r="369" hidden="1"/>
-    <row r="370" hidden="1"/>
-    <row r="371" hidden="1"/>
-    <row r="372" hidden="1"/>
-    <row r="373" hidden="1"/>
-    <row r="374" hidden="1"/>
-    <row r="375" hidden="1"/>
-    <row r="376" hidden="1"/>
-    <row r="377" hidden="1"/>
-    <row r="378" hidden="1"/>
-    <row r="379" hidden="1"/>
-    <row r="380" hidden="1"/>
-    <row r="381" hidden="1"/>
-    <row r="382" hidden="1"/>
-    <row r="383" hidden="1"/>
-    <row r="384" hidden="1"/>
-    <row r="385" hidden="1"/>
-    <row r="386" hidden="1"/>
-    <row r="387" hidden="1"/>
-    <row r="388" hidden="1"/>
-    <row r="389" hidden="1"/>
-    <row r="390" hidden="1"/>
-    <row r="391" hidden="1"/>
-    <row r="392" hidden="1"/>
-    <row r="393" hidden="1"/>
-    <row r="394" hidden="1"/>
-    <row r="395" hidden="1"/>
-    <row r="396" hidden="1"/>
-    <row r="397" hidden="1"/>
-    <row r="398" hidden="1"/>
-    <row r="399" hidden="1"/>
-    <row r="400" hidden="1"/>
-    <row r="401" hidden="1"/>
-    <row r="402" hidden="1"/>
-    <row r="403" hidden="1"/>
-    <row r="404" hidden="1"/>
-    <row r="405" hidden="1"/>
-    <row r="406" hidden="1"/>
-    <row r="407" hidden="1"/>
-    <row r="408" hidden="1"/>
-    <row r="409" hidden="1"/>
-    <row r="410" hidden="1"/>
-    <row r="411" hidden="1"/>
-    <row r="412" hidden="1"/>
-    <row r="413" hidden="1"/>
-    <row r="414" hidden="1"/>
-    <row r="415" hidden="1"/>
-    <row r="416" hidden="1"/>
-    <row r="417" hidden="1"/>
-    <row r="418" hidden="1"/>
-    <row r="419" hidden="1"/>
-    <row r="420" hidden="1"/>
-    <row r="421" hidden="1"/>
-    <row r="422" hidden="1"/>
-    <row r="423" hidden="1"/>
-    <row r="424" hidden="1"/>
-    <row r="425" hidden="1"/>
-    <row r="426" hidden="1"/>
-    <row r="427" hidden="1"/>
-    <row r="428" hidden="1"/>
-    <row r="429" hidden="1"/>
-    <row r="430" hidden="1"/>
-    <row r="431" hidden="1"/>
-    <row r="432" hidden="1"/>
-    <row r="433" hidden="1"/>
-    <row r="434" hidden="1"/>
-    <row r="435" hidden="1"/>
-    <row r="436" hidden="1"/>
-    <row r="437" hidden="1"/>
-    <row r="438" hidden="1"/>
-    <row r="439" hidden="1"/>
-    <row r="440" hidden="1"/>
-    <row r="441" hidden="1"/>
-    <row r="442" hidden="1"/>
-    <row r="443" hidden="1"/>
-    <row r="444" hidden="1"/>
-    <row r="445" hidden="1"/>
-    <row r="446" hidden="1"/>
-    <row r="447" hidden="1"/>
-    <row r="448" hidden="1"/>
-    <row r="449" hidden="1"/>
-    <row r="450" hidden="1"/>
-    <row r="451" hidden="1"/>
-    <row r="452" hidden="1"/>
-    <row r="453" hidden="1"/>
-    <row r="454" hidden="1"/>
-    <row r="455" hidden="1"/>
-    <row r="456" hidden="1"/>
-    <row r="457" hidden="1"/>
-    <row r="458" hidden="1"/>
-    <row r="459" hidden="1"/>
-    <row r="460" hidden="1"/>
-    <row r="461" hidden="1"/>
-    <row r="462" hidden="1"/>
-    <row r="463" hidden="1"/>
-    <row r="464" hidden="1"/>
-    <row r="465" hidden="1"/>
-    <row r="466" hidden="1"/>
-    <row r="467" hidden="1"/>
-    <row r="468" hidden="1"/>
-    <row r="469" hidden="1"/>
-    <row r="470" hidden="1"/>
-    <row r="471" hidden="1"/>
-    <row r="472" hidden="1"/>
-    <row r="473" hidden="1"/>
-    <row r="474" hidden="1"/>
-    <row r="475" hidden="1"/>
-    <row r="476" hidden="1"/>
-    <row r="477" hidden="1"/>
-    <row r="478" hidden="1"/>
-    <row r="479" hidden="1"/>
-    <row r="480" hidden="1"/>
-    <row r="481" hidden="1"/>
-    <row r="482" hidden="1"/>
-    <row r="483" hidden="1"/>
-    <row r="484" hidden="1"/>
-    <row r="485" hidden="1"/>
-    <row r="486" hidden="1"/>
-    <row r="487" hidden="1"/>
-    <row r="488" hidden="1"/>
-    <row r="489" hidden="1"/>
-    <row r="490" hidden="1"/>
-    <row r="491" hidden="1"/>
-    <row r="492" hidden="1"/>
-    <row r="493" hidden="1"/>
-    <row r="494" hidden="1"/>
-    <row r="495" hidden="1"/>
-    <row r="496" hidden="1"/>
-    <row r="497" hidden="1"/>
-    <row r="498" hidden="1"/>
-    <row r="499" hidden="1"/>
-    <row r="500" hidden="1"/>
-    <row r="501" hidden="1"/>
-    <row r="502" hidden="1"/>
-    <row r="503" hidden="1"/>
-    <row r="504" hidden="1"/>
-    <row r="505" hidden="1"/>
-    <row r="506" hidden="1"/>
-    <row r="507" hidden="1"/>
-    <row r="508" hidden="1"/>
-    <row r="509" hidden="1"/>
-    <row r="510" hidden="1"/>
-    <row r="511" hidden="1"/>
-    <row r="512" hidden="1"/>
-    <row r="513" hidden="1"/>
-    <row r="514" hidden="1"/>
-    <row r="515" hidden="1"/>
-    <row r="516" hidden="1"/>
-    <row r="517" hidden="1"/>
-    <row r="518" hidden="1"/>
-    <row r="519" hidden="1"/>
-    <row r="520" hidden="1"/>
-    <row r="521" hidden="1"/>
-    <row r="522" hidden="1"/>
-    <row r="523" hidden="1"/>
-    <row r="524" hidden="1"/>
-    <row r="525" hidden="1"/>
-    <row r="526" hidden="1"/>
-    <row r="527" hidden="1"/>
-    <row r="528" hidden="1"/>
-    <row r="529" hidden="1"/>
-    <row r="530" hidden="1"/>
-    <row r="531" hidden="1"/>
-    <row r="532" hidden="1"/>
-    <row r="533" hidden="1"/>
-    <row r="534" hidden="1"/>
-    <row r="535" hidden="1"/>
-    <row r="536" hidden="1"/>
-    <row r="537" hidden="1"/>
-    <row r="538" hidden="1"/>
-    <row r="539" hidden="1"/>
-    <row r="540" hidden="1"/>
-    <row r="541" hidden="1"/>
-    <row r="542" hidden="1"/>
-    <row r="543" hidden="1"/>
-    <row r="544" hidden="1"/>
-    <row r="545" hidden="1"/>
-    <row r="546" hidden="1"/>
-    <row r="547" hidden="1"/>
-    <row r="548" hidden="1"/>
-    <row r="549" hidden="1"/>
-    <row r="550" hidden="1"/>
-    <row r="551" hidden="1"/>
-    <row r="552" hidden="1"/>
-    <row r="553" hidden="1"/>
-    <row r="554" hidden="1"/>
-    <row r="555" hidden="1"/>
-    <row r="556" hidden="1"/>
-    <row r="557" hidden="1"/>
-    <row r="558" hidden="1"/>
-    <row r="559" hidden="1"/>
-    <row r="560" hidden="1"/>
-    <row r="561" hidden="1"/>
-    <row r="562" hidden="1"/>
-    <row r="563" hidden="1"/>
-    <row r="564" hidden="1"/>
-    <row r="565" hidden="1"/>
-    <row r="566" hidden="1"/>
-    <row r="567" hidden="1"/>
-    <row r="568" hidden="1"/>
-    <row r="569" hidden="1"/>
-    <row r="570" hidden="1"/>
-    <row r="571" hidden="1"/>
-    <row r="572" hidden="1"/>
-    <row r="573" hidden="1"/>
-    <row r="574" hidden="1"/>
-    <row r="575" hidden="1"/>
-    <row r="576" hidden="1"/>
-    <row r="577" hidden="1"/>
-    <row r="578" hidden="1"/>
-    <row r="579" hidden="1"/>
-    <row r="580" hidden="1"/>
-    <row r="581" hidden="1"/>
-    <row r="582" hidden="1"/>
-    <row r="583" hidden="1"/>
-    <row r="584" hidden="1"/>
-    <row r="585" hidden="1"/>
-    <row r="586" hidden="1"/>
-    <row r="587" hidden="1"/>
-    <row r="588" hidden="1"/>
-    <row r="589" hidden="1"/>
-    <row r="590" hidden="1"/>
-    <row r="591" hidden="1"/>
-    <row r="592" hidden="1"/>
-    <row r="593" hidden="1"/>
-    <row r="594" hidden="1"/>
-    <row r="595" hidden="1"/>
-    <row r="596" hidden="1"/>
-    <row r="597" hidden="1"/>
-    <row r="598" hidden="1"/>
-    <row r="599" hidden="1"/>
-    <row r="600" hidden="1"/>
-    <row r="601" hidden="1"/>
-    <row r="602" hidden="1"/>
-    <row r="603" hidden="1"/>
-    <row r="604" hidden="1"/>
-    <row r="605" hidden="1"/>
-    <row r="606" hidden="1"/>
-    <row r="607" hidden="1"/>
-    <row r="608" hidden="1"/>
-    <row r="609" hidden="1"/>
-    <row r="610" hidden="1"/>
-    <row r="611" hidden="1"/>
-    <row r="612" hidden="1"/>
-    <row r="613" hidden="1"/>
-    <row r="614" hidden="1"/>
-    <row r="615" hidden="1"/>
-    <row r="616" hidden="1"/>
-    <row r="617" hidden="1"/>
-    <row r="618" hidden="1"/>
-    <row r="619" hidden="1"/>
-    <row r="620" hidden="1"/>
-    <row r="621" hidden="1"/>
-    <row r="622" hidden="1"/>
-    <row r="623" hidden="1"/>
-    <row r="624" hidden="1"/>
-    <row r="625" hidden="1"/>
-    <row r="626" hidden="1"/>
-    <row r="627" hidden="1"/>
-    <row r="628" hidden="1"/>
-    <row r="629" hidden="1"/>
-    <row r="630" hidden="1"/>
-    <row r="631" hidden="1"/>
-    <row r="632" hidden="1"/>
-    <row r="633" hidden="1"/>
-    <row r="634" hidden="1"/>
-    <row r="635" hidden="1"/>
-    <row r="636" hidden="1"/>
-    <row r="637" hidden="1"/>
-    <row r="638" hidden="1"/>
-    <row r="639" hidden="1"/>
-    <row r="640" hidden="1"/>
-    <row r="641" hidden="1"/>
-    <row r="642" hidden="1"/>
-    <row r="643" hidden="1"/>
-    <row r="644" hidden="1"/>
-    <row r="645" hidden="1"/>
-    <row r="646" hidden="1"/>
-    <row r="647" hidden="1"/>
-    <row r="648" hidden="1"/>
-    <row r="649" hidden="1"/>
-    <row r="650" hidden="1"/>
-    <row r="651" hidden="1"/>
-    <row r="652" hidden="1"/>
-    <row r="653" hidden="1"/>
-    <row r="654" hidden="1"/>
-    <row r="655" hidden="1"/>
-    <row r="656" hidden="1"/>
-    <row r="657" hidden="1"/>
-    <row r="658" hidden="1"/>
-    <row r="659" hidden="1"/>
-    <row r="660" hidden="1"/>
-    <row r="661" hidden="1"/>
-    <row r="662" hidden="1"/>
-    <row r="663" hidden="1"/>
-    <row r="664" hidden="1"/>
-    <row r="665" hidden="1"/>
-    <row r="666" hidden="1"/>
-    <row r="667" hidden="1"/>
-    <row r="668" hidden="1"/>
-    <row r="669" hidden="1"/>
-    <row r="670" hidden="1"/>
-    <row r="671" hidden="1"/>
-    <row r="672" hidden="1"/>
-    <row r="673" hidden="1"/>
-    <row r="674" hidden="1"/>
-    <row r="675" hidden="1"/>
-    <row r="676" hidden="1"/>
-    <row r="677" hidden="1"/>
-    <row r="678" hidden="1"/>
-    <row r="679" hidden="1"/>
-    <row r="680" hidden="1"/>
-    <row r="681" hidden="1"/>
-    <row r="682" hidden="1"/>
-    <row r="683" hidden="1"/>
-    <row r="684" hidden="1"/>
-    <row r="685" hidden="1"/>
-    <row r="686" hidden="1"/>
-    <row r="687" hidden="1"/>
-    <row r="688" hidden="1"/>
-    <row r="689" hidden="1"/>
-    <row r="690" hidden="1"/>
-    <row r="691" hidden="1"/>
-    <row r="692" hidden="1"/>
-    <row r="693" hidden="1"/>
-    <row r="694" hidden="1"/>
-    <row r="695" hidden="1"/>
-    <row r="696" hidden="1"/>
-    <row r="697" hidden="1"/>
-    <row r="698" hidden="1"/>
-    <row r="699" hidden="1"/>
-    <row r="700" hidden="1"/>
-    <row r="701" hidden="1"/>
-    <row r="702" hidden="1"/>
-    <row r="703" hidden="1"/>
-    <row r="704" hidden="1"/>
-    <row r="705" hidden="1"/>
-    <row r="706" hidden="1"/>
-    <row r="707" hidden="1"/>
-    <row r="708" hidden="1"/>
-    <row r="709" hidden="1"/>
-    <row r="710" hidden="1"/>
-    <row r="711" hidden="1"/>
-    <row r="712" hidden="1"/>
-    <row r="713" hidden="1"/>
-    <row r="714" hidden="1"/>
-    <row r="715" hidden="1"/>
-    <row r="716" hidden="1"/>
-    <row r="717" hidden="1"/>
-    <row r="718" hidden="1"/>
-    <row r="719" hidden="1"/>
-    <row r="720" hidden="1"/>
-    <row r="721" hidden="1"/>
-    <row r="722" hidden="1"/>
-    <row r="723" hidden="1"/>
-    <row r="724" hidden="1"/>
-    <row r="725" hidden="1"/>
-    <row r="726" hidden="1"/>
-    <row r="727" hidden="1"/>
-    <row r="728" hidden="1"/>
-    <row r="729" hidden="1"/>
-    <row r="730" hidden="1"/>
-    <row r="731" hidden="1"/>
-    <row r="732" hidden="1"/>
-    <row r="733" hidden="1"/>
-    <row r="734" hidden="1"/>
-    <row r="735" hidden="1"/>
-    <row r="736" hidden="1"/>
-    <row r="737" hidden="1"/>
-    <row r="738" hidden="1"/>
-    <row r="739" hidden="1"/>
-    <row r="740" hidden="1"/>
-    <row r="741" hidden="1"/>
-    <row r="742" hidden="1"/>
-    <row r="743" hidden="1"/>
-    <row r="744" hidden="1"/>
-    <row r="745" hidden="1"/>
-    <row r="746" hidden="1"/>
-    <row r="747" hidden="1"/>
-    <row r="748" hidden="1"/>
-    <row r="749" hidden="1"/>
-    <row r="750" hidden="1"/>
-    <row r="751" hidden="1"/>
-    <row r="752" hidden="1"/>
-    <row r="753" hidden="1"/>
-    <row r="754" hidden="1"/>
-    <row r="755" hidden="1"/>
-    <row r="756" hidden="1"/>
-    <row r="757" hidden="1"/>
-    <row r="758" hidden="1"/>
-    <row r="759" hidden="1"/>
-    <row r="760" hidden="1"/>
-    <row r="761" hidden="1"/>
-    <row r="762" hidden="1"/>
-    <row r="763" hidden="1"/>
-    <row r="764" hidden="1"/>
-    <row r="765" hidden="1"/>
-    <row r="766" hidden="1"/>
-    <row r="767" hidden="1"/>
-    <row r="768" hidden="1"/>
-    <row r="769" hidden="1"/>
-    <row r="770" hidden="1"/>
-    <row r="771" hidden="1"/>
-    <row r="772" hidden="1"/>
-    <row r="773" hidden="1"/>
-    <row r="774" hidden="1"/>
-    <row r="775" hidden="1"/>
-    <row r="776" hidden="1"/>
-    <row r="777" hidden="1"/>
-    <row r="778" hidden="1"/>
-    <row r="779" hidden="1"/>
-    <row r="780" hidden="1"/>
-    <row r="781" hidden="1"/>
-    <row r="782" hidden="1"/>
-    <row r="783" hidden="1"/>
-    <row r="784" hidden="1"/>
-    <row r="785" hidden="1"/>
-    <row r="786" hidden="1"/>
-    <row r="787" hidden="1"/>
-    <row r="788" hidden="1"/>
-    <row r="789" hidden="1"/>
-    <row r="790" hidden="1"/>
-    <row r="791" hidden="1"/>
-    <row r="792" hidden="1"/>
-    <row r="793" hidden="1"/>
-    <row r="794" hidden="1"/>
-    <row r="795" hidden="1"/>
-    <row r="796" hidden="1"/>
-    <row r="797" hidden="1"/>
-    <row r="798" hidden="1"/>
-    <row r="799" hidden="1"/>
-    <row r="800" hidden="1"/>
-    <row r="801" hidden="1"/>
-    <row r="802" hidden="1"/>
-    <row r="803" hidden="1"/>
-    <row r="804" hidden="1"/>
-    <row r="805" hidden="1"/>
-    <row r="806" hidden="1"/>
-    <row r="807" hidden="1"/>
-    <row r="808" hidden="1"/>
-    <row r="809" hidden="1"/>
-    <row r="810" hidden="1"/>
-    <row r="811" hidden="1"/>
-    <row r="812" hidden="1"/>
-    <row r="813" hidden="1"/>
-    <row r="814" hidden="1"/>
-    <row r="815" hidden="1"/>
-    <row r="816" hidden="1"/>
-    <row r="817" hidden="1"/>
-    <row r="818" hidden="1"/>
-    <row r="819" hidden="1"/>
-    <row r="820" hidden="1"/>
-    <row r="821" hidden="1"/>
-    <row r="822" hidden="1"/>
-    <row r="823" hidden="1"/>
-    <row r="824" hidden="1"/>
-    <row r="825" hidden="1"/>
-    <row r="826" hidden="1"/>
-    <row r="827" hidden="1"/>
-    <row r="828" hidden="1"/>
-    <row r="829" hidden="1"/>
-    <row r="830" hidden="1"/>
-    <row r="831" hidden="1"/>
-    <row r="832" hidden="1"/>
-    <row r="833" hidden="1"/>
-    <row r="834" hidden="1"/>
-    <row r="835" hidden="1"/>
-    <row r="836" hidden="1"/>
-    <row r="837" hidden="1"/>
-    <row r="838" hidden="1"/>
-    <row r="839" hidden="1"/>
-    <row r="840" hidden="1"/>
-    <row r="841" hidden="1"/>
-    <row r="842" hidden="1"/>
-    <row r="843" hidden="1"/>
-    <row r="844" hidden="1"/>
-    <row r="845" hidden="1"/>
-    <row r="846" hidden="1"/>
-    <row r="847" hidden="1"/>
-    <row r="848" hidden="1"/>
-    <row r="849" hidden="1"/>
-    <row r="850" hidden="1"/>
-    <row r="851" hidden="1"/>
-    <row r="852" hidden="1"/>
-    <row r="853" hidden="1"/>
-    <row r="854" hidden="1"/>
-    <row r="855" hidden="1"/>
-    <row r="856" hidden="1"/>
-    <row r="857" hidden="1"/>
-    <row r="858" hidden="1"/>
-    <row r="859" hidden="1"/>
-    <row r="860" hidden="1"/>
-    <row r="861" hidden="1"/>
-    <row r="862" hidden="1"/>
-    <row r="863" hidden="1"/>
-    <row r="864" hidden="1"/>
-    <row r="865" hidden="1"/>
-    <row r="866" hidden="1"/>
-    <row r="867" hidden="1"/>
-    <row r="868" hidden="1"/>
-    <row r="869" hidden="1"/>
-    <row r="870" hidden="1"/>
-    <row r="871" hidden="1"/>
-    <row r="872" hidden="1"/>
-    <row r="873" hidden="1"/>
-    <row r="874" hidden="1"/>
-    <row r="875" hidden="1"/>
-    <row r="876" hidden="1"/>
-    <row r="877" hidden="1"/>
-    <row r="878" hidden="1"/>
-    <row r="879" hidden="1"/>
-    <row r="880" hidden="1"/>
-    <row r="881" hidden="1"/>
-    <row r="882" hidden="1"/>
-    <row r="883" hidden="1"/>
-    <row r="884" hidden="1"/>
-    <row r="885" hidden="1"/>
-    <row r="886" hidden="1"/>
-    <row r="887" hidden="1"/>
-    <row r="888" hidden="1"/>
-    <row r="889" hidden="1"/>
-    <row r="890" hidden="1"/>
-    <row r="891" hidden="1"/>
-    <row r="892" hidden="1"/>
-    <row r="893" hidden="1"/>
-    <row r="894" hidden="1"/>
-    <row r="895" hidden="1"/>
-    <row r="896" hidden="1"/>
-    <row r="897" hidden="1"/>
-    <row r="898" hidden="1"/>
-    <row r="899" hidden="1"/>
-    <row r="900" hidden="1"/>
-    <row r="901" hidden="1"/>
-    <row r="902" hidden="1"/>
-    <row r="903" hidden="1"/>
-    <row r="904" hidden="1"/>
-    <row r="905" hidden="1"/>
-    <row r="906" hidden="1"/>
-    <row r="907" hidden="1"/>
-    <row r="908" hidden="1"/>
-    <row r="909" hidden="1"/>
-    <row r="910" hidden="1"/>
-    <row r="911" hidden="1"/>
-    <row r="912" hidden="1"/>
-    <row r="913" hidden="1"/>
-    <row r="914" hidden="1"/>
-    <row r="915" hidden="1"/>
-    <row r="916" hidden="1"/>
-    <row r="917" hidden="1"/>
-    <row r="918" hidden="1"/>
-    <row r="919" hidden="1"/>
-    <row r="920" hidden="1"/>
-    <row r="921" hidden="1"/>
-    <row r="922" hidden="1"/>
-    <row r="923" hidden="1"/>
-    <row r="924" hidden="1"/>
-    <row r="925" hidden="1"/>
-    <row r="926" hidden="1"/>
-    <row r="927" hidden="1"/>
-    <row r="928" hidden="1"/>
-    <row r="929" hidden="1"/>
-    <row r="930" hidden="1"/>
-    <row r="931" hidden="1"/>
-    <row r="932" hidden="1"/>
-    <row r="933" hidden="1"/>
-    <row r="934" hidden="1"/>
-    <row r="935" hidden="1"/>
-    <row r="936" hidden="1"/>
-    <row r="937" hidden="1"/>
-    <row r="938" hidden="1"/>
-    <row r="939" hidden="1"/>
-    <row r="940" hidden="1"/>
-    <row r="941" hidden="1"/>
-    <row r="942" hidden="1"/>
-    <row r="943" hidden="1"/>
-    <row r="944" hidden="1"/>
-    <row r="945" hidden="1"/>
-    <row r="946" hidden="1"/>
-    <row r="947" hidden="1"/>
-    <row r="948" hidden="1"/>
-    <row r="949" hidden="1"/>
-    <row r="950" hidden="1"/>
-    <row r="951" hidden="1"/>
-    <row r="952" hidden="1"/>
-    <row r="953" hidden="1">
-      <c r="A953" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B953" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C953" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D953" t="s">
-        <v>49</v>
-      </c>
-      <c r="E953" t="s">
-        <v>36</v>
-      </c>
-      <c r="F953" t="s">
-        <v>28</v>
-      </c>
-      <c r="G953" t="s">
-        <v>37</v>
-      </c>
-      <c r="H953" t="s">
-        <v>30</v>
-      </c>
-      <c r="I953" t="s">
-        <v>31</v>
-      </c>
-      <c r="J953" t="s">
-        <v>32</v>
-      </c>
-      <c r="K953" t="s">
-        <v>38</v>
-      </c>
-      <c r="P953" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="S953" s="2">
-        <v>6.5</v>
-      </c>
+    <row r="953">
       <c r="Y953" s="4"/>
       <c r="Z953" s="4"/>
     </row>
-    <row r="954" hidden="1">
-      <c r="A954" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B954" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C954" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D954" t="s">
-        <v>49</v>
-      </c>
-      <c r="E954" t="s">
-        <v>42</v>
-      </c>
-      <c r="F954" t="s">
-        <v>28</v>
-      </c>
-      <c r="G954" t="s">
-        <v>43</v>
-      </c>
-      <c r="H954" t="s">
-        <v>30</v>
-      </c>
-      <c r="I954" t="s">
-        <v>31</v>
-      </c>
-      <c r="J954" t="s">
-        <v>32</v>
-      </c>
-      <c r="K954" t="s">
-        <v>44</v>
-      </c>
-      <c r="M954" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="S954" s="2">
-        <v>5.5</v>
-      </c>
+    <row r="954">
       <c r="Y954" s="4"/>
       <c r="Z954" s="4"/>
       <c r="AA954" s="4"/>
       <c r="AB954" s="4"/>
     </row>
-    <row r="955" hidden="1">
-      <c r="A955" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B955" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C955" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D955" t="s">
-        <v>49</v>
-      </c>
-      <c r="E955" t="s">
-        <v>27</v>
-      </c>
-      <c r="F955" t="s">
-        <v>28</v>
-      </c>
-      <c r="G955" t="s">
-        <v>29</v>
-      </c>
-      <c r="H955" t="s">
-        <v>30</v>
-      </c>
-      <c r="I955" t="s">
-        <v>31</v>
-      </c>
-      <c r="J955" t="s">
-        <v>32</v>
-      </c>
-      <c r="K955" t="s">
-        <v>33</v>
-      </c>
-      <c r="N955">
-        <v>0.047</v>
-      </c>
-      <c r="S955">
-        <v>47.0</v>
-      </c>
-      <c r="W955">
-        <v>100.0</v>
-      </c>
+    <row r="955">
       <c r="Y955" s="4"/>
       <c r="Z955" s="4"/>
       <c r="AA955" s="4"/>
       <c r="AB955" s="4"/>
     </row>
-    <row r="956" hidden="1">
-      <c r="A956" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B956" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C956" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D956" t="s">
-        <v>49</v>
-      </c>
-      <c r="E956" t="s">
-        <v>34</v>
-      </c>
-      <c r="F956" t="s">
-        <v>28</v>
-      </c>
-      <c r="G956" t="s">
-        <v>30</v>
-      </c>
-      <c r="H956" t="s">
-        <v>30</v>
-      </c>
-      <c r="I956" t="s">
-        <v>31</v>
-      </c>
-      <c r="J956" t="s">
-        <v>32</v>
-      </c>
-      <c r="K956" t="s">
-        <v>35</v>
-      </c>
-      <c r="L956">
-        <v>42.0</v>
-      </c>
-      <c r="S956">
-        <v>42.0</v>
-      </c>
+    <row r="956">
       <c r="Y956" s="4"/>
       <c r="Z956" s="4"/>
       <c r="AA956" s="4"/>
       <c r="AB956" s="4"/>
     </row>
-    <row r="957" hidden="1">
-      <c r="A957" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B957" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C957" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D957" t="s">
-        <v>49</v>
-      </c>
-      <c r="E957" t="s">
-        <v>45</v>
-      </c>
-      <c r="F957" t="s">
-        <v>28</v>
-      </c>
-      <c r="G957" t="s">
-        <v>46</v>
-      </c>
-      <c r="H957" t="s">
-        <v>30</v>
-      </c>
-      <c r="I957" t="s">
-        <v>31</v>
-      </c>
-      <c r="J957" t="s">
-        <v>32</v>
-      </c>
-      <c r="K957" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q957">
-        <v>18.0</v>
-      </c>
-      <c r="S957">
-        <v>18.0</v>
-      </c>
+    <row r="957">
       <c r="Y957" s="4"/>
       <c r="Z957" s="4"/>
       <c r="AA957" s="4"/>
       <c r="AB957" s="4"/>
     </row>
-    <row r="958" hidden="1">
-      <c r="A958" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B958" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C958" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D958" t="s">
-        <v>49</v>
-      </c>
-      <c r="E958" t="s">
-        <v>47</v>
-      </c>
-      <c r="F958" t="s">
-        <v>28</v>
-      </c>
-      <c r="G958" t="s">
-        <v>48</v>
-      </c>
-      <c r="H958" t="s">
-        <v>30</v>
-      </c>
-      <c r="I958" t="s">
-        <v>31</v>
-      </c>
-      <c r="J958" t="s">
-        <v>32</v>
-      </c>
-      <c r="K958" t="s">
-        <v>38</v>
-      </c>
-      <c r="P958">
-        <v>25.0</v>
-      </c>
-      <c r="S958">
-        <v>25.0</v>
-      </c>
+    <row r="958">
       <c r="Y958" s="4"/>
       <c r="Z958" s="4"/>
       <c r="AA958" s="4"/>
       <c r="AB958" s="4"/>
     </row>
-    <row r="959" hidden="1">
-      <c r="A959" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B959" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C959" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D959" t="s">
-        <v>26</v>
-      </c>
-      <c r="E959" t="s">
-        <v>36</v>
-      </c>
-      <c r="F959" t="s">
-        <v>28</v>
-      </c>
-      <c r="G959" t="s">
-        <v>37</v>
-      </c>
-      <c r="H959" t="s">
-        <v>30</v>
-      </c>
-      <c r="I959" t="s">
-        <v>31</v>
-      </c>
-      <c r="J959" t="s">
-        <v>32</v>
-      </c>
-      <c r="K959" t="s">
-        <v>38</v>
-      </c>
-      <c r="P959" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="S959" s="2">
-        <v>5.0</v>
-      </c>
+    <row r="959">
       <c r="Y959" s="4"/>
       <c r="Z959" s="4"/>
     </row>
-    <row r="960" hidden="1">
-      <c r="A960" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B960" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C960" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D960" t="s">
-        <v>26</v>
-      </c>
-      <c r="E960" t="s">
-        <v>51</v>
-      </c>
-      <c r="F960" t="s">
-        <v>28</v>
-      </c>
-      <c r="G960" t="s">
-        <v>52</v>
-      </c>
-      <c r="H960" t="s">
-        <v>30</v>
-      </c>
-      <c r="I960" t="s">
-        <v>31</v>
-      </c>
-      <c r="J960" t="s">
-        <v>32</v>
-      </c>
-      <c r="K960" t="s">
-        <v>38</v>
-      </c>
-      <c r="P960">
-        <v>8.5</v>
-      </c>
-      <c r="S960">
-        <v>8.5</v>
-      </c>
+    <row r="960">
       <c r="Y960" s="4"/>
       <c r="Z960" s="4"/>
     </row>
-    <row r="961" hidden="1">
-      <c r="A961" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B961" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C961" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D961" t="s">
-        <v>26</v>
-      </c>
-      <c r="E961" t="s">
-        <v>42</v>
-      </c>
-      <c r="F961" t="s">
-        <v>28</v>
-      </c>
-      <c r="G961" t="s">
-        <v>43</v>
-      </c>
-      <c r="H961" t="s">
-        <v>30</v>
-      </c>
-      <c r="I961" t="s">
-        <v>31</v>
-      </c>
-      <c r="J961" t="s">
-        <v>32</v>
-      </c>
-      <c r="K961" t="s">
-        <v>44</v>
-      </c>
-      <c r="M961" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="S961" s="2">
-        <v>5.0</v>
-      </c>
+    <row r="961">
       <c r="Y961" s="4"/>
       <c r="Z961" s="4"/>
       <c r="AA961" s="4"/>
       <c r="AB961" s="4"/>
     </row>
-    <row r="962" hidden="1">
-      <c r="A962" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B962" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C962" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D962" t="s">
-        <v>26</v>
-      </c>
-      <c r="E962" t="s">
-        <v>27</v>
-      </c>
-      <c r="F962" t="s">
-        <v>28</v>
-      </c>
-      <c r="G962" t="s">
-        <v>29</v>
-      </c>
-      <c r="H962" t="s">
-        <v>30</v>
-      </c>
-      <c r="I962" t="s">
-        <v>31</v>
-      </c>
-      <c r="J962" t="s">
-        <v>32</v>
-      </c>
-      <c r="K962" t="s">
-        <v>33</v>
-      </c>
-      <c r="N962">
-        <v>0.047</v>
-      </c>
-      <c r="S962">
-        <v>47.0</v>
-      </c>
-      <c r="W962">
-        <v>100.0</v>
-      </c>
+    <row r="962">
       <c r="Y962" s="4"/>
       <c r="Z962" s="4"/>
       <c r="AA962" s="4"/>
       <c r="AB962" s="4"/>
     </row>
-    <row r="963" hidden="1">
-      <c r="A963" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B963" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C963" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D963" t="s">
-        <v>26</v>
-      </c>
-      <c r="E963" t="s">
-        <v>34</v>
-      </c>
-      <c r="F963" t="s">
-        <v>28</v>
-      </c>
-      <c r="G963" t="s">
-        <v>30</v>
-      </c>
-      <c r="H963" t="s">
-        <v>30</v>
-      </c>
-      <c r="I963" t="s">
-        <v>31</v>
-      </c>
-      <c r="J963" t="s">
-        <v>32</v>
-      </c>
-      <c r="K963" t="s">
-        <v>35</v>
-      </c>
-      <c r="L963">
-        <v>42.0</v>
-      </c>
-      <c r="S963">
-        <v>42.0</v>
-      </c>
+    <row r="963">
       <c r="Y963" s="4"/>
       <c r="Z963" s="4"/>
       <c r="AA963" s="4"/>
       <c r="AB963" s="4"/>
     </row>
-    <row r="964" hidden="1">
-      <c r="A964" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B964" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C964" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D964" t="s">
-        <v>26</v>
-      </c>
-      <c r="E964" t="s">
-        <v>45</v>
-      </c>
-      <c r="F964" t="s">
-        <v>28</v>
-      </c>
-      <c r="G964" t="s">
-        <v>46</v>
-      </c>
-      <c r="H964" t="s">
-        <v>30</v>
-      </c>
-      <c r="I964" t="s">
-        <v>31</v>
-      </c>
-      <c r="J964" t="s">
-        <v>32</v>
-      </c>
-      <c r="K964" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q964">
-        <v>18.0</v>
-      </c>
-      <c r="S964">
-        <v>18.0</v>
-      </c>
+    <row r="964">
       <c r="Y964" s="4"/>
       <c r="Z964" s="4"/>
       <c r="AA964" s="4"/>
       <c r="AB964" s="4"/>
     </row>
-    <row r="965" hidden="1">
-      <c r="A965" s="3">
-        <v>43227.0</v>
-      </c>
-      <c r="B965" s="3">
-        <v>43592.0</v>
-      </c>
-      <c r="C965" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D965" t="s">
-        <v>26</v>
-      </c>
-      <c r="E965" t="s">
-        <v>47</v>
-      </c>
-      <c r="F965" t="s">
-        <v>28</v>
-      </c>
-      <c r="G965" t="s">
-        <v>48</v>
-      </c>
-      <c r="H965" t="s">
-        <v>30</v>
-      </c>
-      <c r="I965" t="s">
-        <v>31</v>
-      </c>
-      <c r="J965" t="s">
-        <v>32</v>
-      </c>
-      <c r="K965" t="s">
-        <v>38</v>
-      </c>
-      <c r="P965">
-        <v>25.0</v>
-      </c>
-      <c r="S965">
-        <v>25.0</v>
-      </c>
+    <row r="965">
       <c r="Y965" s="4"/>
       <c r="Z965" s="4"/>
       <c r="AA965" s="4"/>
       <c r="AB965" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AB$965">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Ho Chi Minh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$AB$965"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
+++ b/db/dummydata/speedtrans/speedtrans__local_charges.xlsx
@@ -434,7 +434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="3">
         <v>43227.0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="3">
         <v>43227.0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="3">
         <v>43248.0</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="3">
         <v>43227.0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="3">
         <v>43227.0</v>
       </c>
@@ -644,7 +644,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="3">
         <v>43227.0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="3">
         <v>43227.0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="3">
         <v>43227.0</v>
       </c>
@@ -770,7 +770,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="3">
         <v>43227.0</v>
       </c>
@@ -811,7 +811,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="3">
         <v>43227.0</v>
       </c>
@@ -852,7 +852,7 @@
         <v>6.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="3">
         <v>43227.0</v>
       </c>
@@ -893,7 +893,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="3">
         <v>43227.0</v>
       </c>
@@ -934,7 +934,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="3">
         <v>43227.0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="3">
         <v>43227.0</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="3">
         <v>43227.0</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="3">
         <v>43227.0</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="3">
         <v>43227.0</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="3">
         <v>43227.0</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="3">
         <v>43227.0</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="3">
         <v>43227.0</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="3">
         <v>43227.0</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="3">
         <v>43227.0</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="3">
         <v>43227.0</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="3">
         <v>43227.0</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="3">
         <v>43227.0</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="3">
         <v>43227.0</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="3">
         <v>43227.0</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="3">
         <v>43227.0</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="3">
         <v>43227.0</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="3">
         <v>43247.0</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="3">
         <v>43227.0</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="3">
         <v>43227.0</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="3">
         <v>43227.0</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="3">
         <v>43227.0</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="3">
         <v>43227.0</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="3">
         <v>43227.0</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="3">
         <v>43227.0</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="3">
         <v>43227.0</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="3">
         <v>43227.0</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="3">
         <v>43227.0</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="3">
         <v>43227.0</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="3">
         <v>43227.0</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="3">
         <v>43227.0</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="3">
         <v>43232.0</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="3">
         <v>43233.0</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="3">
         <v>43227.0</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="3">
         <v>43227.0</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="3">
         <v>43227.0</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="3">
         <v>43227.0</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="3">
         <v>43227.0</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="3">
         <v>43227.0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" s="3">
         <v>43227.0</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="3">
         <v>43227.0</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="3">
         <v>43227.0</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="3">
         <v>43227.0</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="3">
         <v>43227.0</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="3">
         <v>43227.0</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="3">
         <v>43255.0</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" s="3">
         <v>43256.0</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" s="3">
         <v>43227.0</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="3">
         <v>43227.0</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1">
       <c r="A63" s="3">
         <v>43227.0</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="3">
         <v>43227.0</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="3">
         <v>43227.0</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="3">
         <v>43227.0</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="3">
         <v>43227.0</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="3">
         <v>43227.0</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="3">
         <v>43227.0</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="3">
         <v>43227.0</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="3">
         <v>43227.0</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="3">
         <v>43234.0</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="3">
         <v>43235.0</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="3">
         <v>43227.0</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="3">
         <v>43227.0</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="3">
         <v>43227.0</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="3">
         <v>43227.0</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="3">
         <v>43227.0</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>7.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="3">
         <v>43227.0</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="3">
         <v>43227.0</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="3">
         <v>43227.0</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="1">
       <c r="A82" s="3">
         <v>43227.0</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="A83" s="3">
         <v>43227.0</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="3">
         <v>43227.0</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="3">
         <v>43227.0</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="3">
         <v>43227.0</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="3">
         <v>43227.0</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="3">
         <v>43227.0</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="3">
         <v>43227.0</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="3">
         <v>43227.0</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="3">
         <v>43227.0</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="3">
         <v>43227.0</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="3">
         <v>43227.0</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="3">
         <v>43227.0</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="3">
         <v>43227.0</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="3">
         <v>43227.0</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="3">
         <v>43227.0</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="3">
         <v>43227.0</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="1">
       <c r="A99" s="3">
         <v>43227.0</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="3">
         <v>43227.0</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="3">
         <v>43251.0</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="3">
         <v>43252.0</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="3">
         <v>43227.0</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="3">
         <v>43227.0</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="A105" s="3">
         <v>43227.0</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="3">
         <v>43227.0</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="1">
       <c r="A107" s="3">
         <v>43227.0</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="1">
       <c r="A108" s="3">
         <v>43227.0</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="3">
         <v>43227.0</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="3">
         <v>43227.0</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" hidden="1">
       <c r="A111" s="3">
         <v>43227.0</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="3">
         <v>43227.0</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="3">
         <v>43227.0</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="3">
         <v>43227.0</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="3">
         <v>43227.0</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="1">
       <c r="A116" s="3">
         <v>43227.0</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="3">
         <v>43227.0</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="3">
         <v>43227.0</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="3">
         <v>43227.0</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="1">
       <c r="A120" s="3">
         <v>43253.0</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="3">
         <v>43254.0</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="3">
         <v>43227.0</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="3">
         <v>43227.0</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="3">
         <v>43227.0</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="3">
         <v>43227.0</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="3">
         <v>43227.0</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="3">
         <v>43253.0</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" hidden="1">
       <c r="A128" s="3">
         <v>43254.0</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="3">
         <v>43228.0</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" hidden="1">
       <c r="A130" s="3">
         <v>43229.0</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" hidden="1">
       <c r="A131" s="3">
         <v>43227.0</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="1">
       <c r="A132" s="3">
         <v>43227.0</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="1">
       <c r="A133" s="3">
         <v>43227.0</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="1">
       <c r="A134" s="3">
         <v>43227.0</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="1">
       <c r="A135" s="3">
         <v>43230.0</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" hidden="1">
       <c r="A136" s="3">
         <v>43231.0</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="3">
         <v>43227.0</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="1">
       <c r="A138" s="3">
         <v>43227.0</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="1">
       <c r="A139" s="3">
         <v>43227.0</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="1">
       <c r="A140" s="3">
         <v>43227.0</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="1">
       <c r="A141" s="3">
         <v>43227.0</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" hidden="1">
       <c r="A142" s="3">
         <v>43227.0</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="1">
       <c r="A143" s="3">
         <v>43227.0</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="1">
       <c r="A144" s="3">
         <v>43227.0</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="3">
         <v>43227.0</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="1">
       <c r="A146" s="3">
         <v>43227.0</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="3">
         <v>43243.0</v>
       </c>
@@ -6587,7 +6587,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" hidden="1">
       <c r="A148" s="3">
         <v>43244.0</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="3">
         <v>43227.0</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="3">
         <v>43227.0</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="3">
         <v>43227.0</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="3">
         <v>43227.0</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="3">
         <v>43245.0</v>
       </c>
@@ -6840,7 +6840,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" hidden="1">
       <c r="A154" s="3">
         <v>43246.0</v>
       </c>
@@ -6883,7 +6883,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="3">
         <v>43227.0</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="3">
         <v>43227.0</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="3">
         <v>43227.0</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="3">
         <v>43227.0</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="3">
         <v>43227.0</v>
       </c>
@@ -7093,7 +7093,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="3">
         <v>43227.0</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" hidden="1">
       <c r="A161" s="3">
         <v>43227.0</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="3">
         <v>43227.0</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="3">
         <v>43227.0</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="3">
         <v>43227.0</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="3">
         <v>43227.0</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="3">
         <v>43227.0</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="3">
         <v>43227.0</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="1">
       <c r="A168" s="3">
         <v>43227.0</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="3">
         <v>43227.0</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="3">
         <v>43227.0</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="1">
       <c r="A171" s="3">
         <v>43227.0</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="1">
       <c r="A172" s="3">
         <v>43227.0</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" hidden="1">
       <c r="A173" s="3">
         <v>43227.0</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" hidden="1">
       <c r="A174" s="3">
         <v>43227.0</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="1">
       <c r="A175" s="3">
         <v>43227.0</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" hidden="1">
       <c r="A176" s="3">
         <v>43227.0</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="1">
       <c r="A177" s="3">
         <v>43227.0</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" hidden="1">
       <c r="A178" s="3">
         <v>43227.0</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" hidden="1">
       <c r="A179" s="3">
         <v>43227.0</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" hidden="1">
       <c r="A180" s="3">
         <v>43227.0</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" hidden="1">
       <c r="A181" s="3">
         <v>43227.0</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" hidden="1">
       <c r="A182" s="3">
         <v>43227.0</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" hidden="1">
       <c r="A183" s="3">
         <v>43227.0</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" hidden="1">
       <c r="A184" s="3">
         <v>43227.0</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" hidden="1">
       <c r="A185" s="3">
         <v>43227.0</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" hidden="1">
       <c r="A186" s="3">
         <v>43227.0</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="1">
       <c r="A187" s="3">
         <v>43227.0</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="1">
       <c r="A188" s="3">
         <v>43227.0</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" hidden="1">
       <c r="A189" s="3">
         <v>43227.0</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" hidden="1">
       <c r="A190" s="3">
         <v>43227.0</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="1">
       <c r="A191" s="3">
         <v>43227.0</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="1">
       <c r="A192" s="3">
         <v>43227.0</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="1">
       <c r="A193" s="3">
         <v>43227.0</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" hidden="1">
       <c r="A194" s="3">
         <v>43227.0</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" hidden="1">
       <c r="A195" s="3">
         <v>43227.0</v>
       </c>
@@ -8599,7 +8599,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" hidden="1">
       <c r="A196" s="3">
         <v>43236.0</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" hidden="1">
       <c r="A197" s="3">
         <v>43237.0</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" hidden="1">
       <c r="A198" s="3">
         <v>43238.0</v>
       </c>
@@ -8728,7 +8728,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" hidden="1">
       <c r="A199" s="3">
         <v>43227.0</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" hidden="1">
       <c r="A200" s="3">
         <v>43227.0</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" hidden="1">
       <c r="A201" s="3">
         <v>43227.0</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" hidden="1">
       <c r="A202" s="3">
         <v>43227.0</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" hidden="1">
       <c r="A203" s="3">
         <v>43227.0</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" hidden="1">
       <c r="A204" s="3">
         <v>43239.0</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205">
+    <row r="205" hidden="1">
       <c r="A205" s="3">
         <v>43240.0</v>
       </c>
@@ -9022,7 +9022,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206">
+    <row r="206" hidden="1">
       <c r="A206" s="3">
         <v>43227.0</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" hidden="1">
       <c r="A207" s="3">
         <v>43227.0</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" hidden="1">
       <c r="A208" s="3">
         <v>43227.0</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="1">
       <c r="A209" s="3">
         <v>43227.0</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" hidden="1">
       <c r="A210" s="3">
         <v>43227.0</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" hidden="1">
       <c r="A211" s="3">
         <v>43227.0</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" hidden="1">
       <c r="A212" s="3">
         <v>43227.0</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="1">
       <c r="A213" s="3">
         <v>43227.0</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>7.0</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" hidden="1">
       <c r="A214" s="3">
         <v>43227.0</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" hidden="1">
       <c r="A215" s="3">
         <v>43227.0</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" hidden="1">
       <c r="A216" s="3">
         <v>43227.0</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" hidden="1">
       <c r="A217" s="3">
         <v>43256.0</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" hidden="1">
       <c r="A218" s="3">
         <v>43227.0</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" hidden="1">
       <c r="A219" s="3">
         <v>43227.0</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" hidden="1">
       <c r="A220" s="3">
         <v>43227.0</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" hidden="1">
       <c r="A221" s="3">
         <v>43227.0</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" hidden="1">
       <c r="A222" s="3">
         <v>43227.0</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" hidden="1">
       <c r="A223" s="3">
         <v>43227.0</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" hidden="1">
       <c r="A244" s="3">
         <v>43227.0</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" hidden="1">
       <c r="A245" s="3">
         <v>43227.0</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" hidden="1">
       <c r="A246" s="3">
         <v>43227.0</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" hidden="1">
       <c r="A247" s="3">
         <v>43227.0</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" hidden="1">
       <c r="A248" s="3">
         <v>43227.0</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" hidden="1">
       <c r="A249" s="3">
         <v>43227.0</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" hidden="1">
       <c r="A250" s="3">
         <v>43227.0</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" hidden="1">
       <c r="A251" s="3">
         <v>43227.0</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" hidden="1">
       <c r="A252" s="3">
         <v>43227.0</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" hidden="1">
       <c r="A253" s="3">
         <v>43227.0</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" hidden="1">
       <c r="A254" s="3">
         <v>43227.0</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" hidden="1">
       <c r="A255" s="3">
         <v>43227.0</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" hidden="1">
       <c r="A256" s="3">
         <v>43227.0</v>
       </c>
@@ -11185,80 +11185,782 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="953">
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
+    <row r="285" hidden="1"/>
+    <row r="286" hidden="1"/>
+    <row r="287" hidden="1"/>
+    <row r="288" hidden="1"/>
+    <row r="289" hidden="1"/>
+    <row r="290" hidden="1"/>
+    <row r="291" hidden="1"/>
+    <row r="292" hidden="1"/>
+    <row r="293" hidden="1"/>
+    <row r="294" hidden="1"/>
+    <row r="295" hidden="1"/>
+    <row r="296" hidden="1"/>
+    <row r="297" hidden="1"/>
+    <row r="298" hidden="1"/>
+    <row r="299" hidden="1"/>
+    <row r="300" hidden="1"/>
+    <row r="301" hidden="1"/>
+    <row r="302" hidden="1"/>
+    <row r="303" hidden="1"/>
+    <row r="304" hidden="1"/>
+    <row r="305" hidden="1"/>
+    <row r="306" hidden="1"/>
+    <row r="307" hidden="1"/>
+    <row r="308" hidden="1"/>
+    <row r="309" hidden="1"/>
+    <row r="310" hidden="1"/>
+    <row r="311" hidden="1"/>
+    <row r="312" hidden="1"/>
+    <row r="313" hidden="1"/>
+    <row r="314" hidden="1"/>
+    <row r="315" hidden="1"/>
+    <row r="316" hidden="1"/>
+    <row r="317" hidden="1"/>
+    <row r="318" hidden="1"/>
+    <row r="319" hidden="1"/>
+    <row r="320" hidden="1"/>
+    <row r="321" hidden="1"/>
+    <row r="322" hidden="1"/>
+    <row r="323" hidden="1"/>
+    <row r="324" hidden="1"/>
+    <row r="325" hidden="1"/>
+    <row r="326" hidden="1"/>
+    <row r="327" hidden="1"/>
+    <row r="328" hidden="1"/>
+    <row r="329" hidden="1"/>
+    <row r="330" hidden="1"/>
+    <row r="331" hidden="1"/>
+    <row r="332" hidden="1"/>
+    <row r="333" hidden="1"/>
+    <row r="334" hidden="1"/>
+    <row r="335" hidden="1"/>
+    <row r="336" hidden="1"/>
+    <row r="337" hidden="1"/>
+    <row r="338" hidden="1"/>
+    <row r="339" hidden="1"/>
+    <row r="340" hidden="1"/>
+    <row r="341" hidden="1"/>
+    <row r="342" hidden="1"/>
+    <row r="343" hidden="1"/>
+    <row r="344" hidden="1"/>
+    <row r="345" hidden="1"/>
+    <row r="346" hidden="1"/>
+    <row r="347" hidden="1"/>
+    <row r="348" hidden="1"/>
+    <row r="349" hidden="1"/>
+    <row r="350" hidden="1"/>
+    <row r="351" hidden="1"/>
+    <row r="352" hidden="1"/>
+    <row r="353" hidden="1"/>
+    <row r="354" hidden="1"/>
+    <row r="355" hidden="1"/>
+    <row r="356" hidden="1"/>
+    <row r="357" hidden="1"/>
+    <row r="358" hidden="1"/>
+    <row r="359" hidden="1"/>
+    <row r="360" hidden="1"/>
+    <row r="361" hidden="1"/>
+    <row r="362" hidden="1"/>
+    <row r="363" hidden="1"/>
+    <row r="364" hidden="1"/>
+    <row r="365" hidden="1"/>
+    <row r="366" hidden="1"/>
+    <row r="367" hidden="1"/>
+    <row r="368" hidden="1"/>
+    <row r="369" hidden="1"/>
+    <row r="370" hidden="1"/>
+    <row r="371" hidden="1"/>
+    <row r="372" hidden="1"/>
+    <row r="373" hidden="1"/>
+    <row r="374" hidden="1"/>
+    <row r="375" hidden="1"/>
+    <row r="376" hidden="1"/>
+    <row r="377" hidden="1"/>
+    <row r="378" hidden="1"/>
+    <row r="379" hidden="1"/>
+    <row r="380" hidden="1"/>
+    <row r="381" hidden="1"/>
+    <row r="382" hidden="1"/>
+    <row r="383" hidden="1"/>
+    <row r="384" hidden="1"/>
+    <row r="385" hidden="1"/>
+    <row r="386" hidden="1"/>
+    <row r="387" hidden="1"/>
+    <row r="388" hidden="1"/>
+    <row r="389" hidden="1"/>
+    <row r="390" hidden="1"/>
+    <row r="391" hidden="1"/>
+    <row r="392" hidden="1"/>
+    <row r="393" hidden="1"/>
+    <row r="394" hidden="1"/>
+    <row r="395" hidden="1"/>
+    <row r="396" hidden="1"/>
+    <row r="397" hidden="1"/>
+    <row r="398" hidden="1"/>
+    <row r="399" hidden="1"/>
+    <row r="400" hidden="1"/>
+    <row r="401" hidden="1"/>
+    <row r="402" hidden="1"/>
+    <row r="403" hidden="1"/>
+    <row r="404" hidden="1"/>
+    <row r="405" hidden="1"/>
+    <row r="406" hidden="1"/>
+    <row r="407" hidden="1"/>
+    <row r="408" hidden="1"/>
+    <row r="409" hidden="1"/>
+    <row r="410" hidden="1"/>
+    <row r="411" hidden="1"/>
+    <row r="412" hidden="1"/>
+    <row r="413" hidden="1"/>
+    <row r="414" hidden="1"/>
+    <row r="415" hidden="1"/>
+    <row r="416" hidden="1"/>
+    <row r="417" hidden="1"/>
+    <row r="418" hidden="1"/>
+    <row r="419" hidden="1"/>
+    <row r="420" hidden="1"/>
+    <row r="421" hidden="1"/>
+    <row r="422" hidden="1"/>
+    <row r="423" hidden="1"/>
+    <row r="424" hidden="1"/>
+    <row r="425" hidden="1"/>
+    <row r="426" hidden="1"/>
+    <row r="427" hidden="1"/>
+    <row r="428" hidden="1"/>
+    <row r="429" hidden="1"/>
+    <row r="430" hidden="1"/>
+    <row r="431" hidden="1"/>
+    <row r="432" hidden="1"/>
+    <row r="433" hidden="1"/>
+    <row r="434" hidden="1"/>
+    <row r="435" hidden="1"/>
+    <row r="436" hidden="1"/>
+    <row r="437" hidden="1"/>
+    <row r="438" hidden="1"/>
+    <row r="439" hidden="1"/>
+    <row r="440" hidden="1"/>
+    <row r="441" hidden="1"/>
+    <row r="442" hidden="1"/>
+    <row r="443" hidden="1"/>
+    <row r="444" hidden="1"/>
+    <row r="445" hidden="1"/>
+    <row r="446" hidden="1"/>
+    <row r="447" hidden="1"/>
+    <row r="448" hidden="1"/>
+    <row r="449" hidden="1"/>
+    <row r="450" hidden="1"/>
+    <row r="451" hidden="1"/>
+    <row r="452" hidden="1"/>
+    <row r="453" hidden="1"/>
+    <row r="454" hidden="1"/>
+    <row r="455" hidden="1"/>
+    <row r="456" hidden="1"/>
+    <row r="457" hidden="1"/>
+    <row r="458" hidden="1"/>
+    <row r="459" hidden="1"/>
+    <row r="460" hidden="1"/>
+    <row r="461" hidden="1"/>
+    <row r="462" hidden="1"/>
+    <row r="463" hidden="1"/>
+    <row r="464" hidden="1"/>
+    <row r="465" hidden="1"/>
+    <row r="466" hidden="1"/>
+    <row r="467" hidden="1"/>
+    <row r="468" hidden="1"/>
+    <row r="469" hidden="1"/>
+    <row r="470" hidden="1"/>
+    <row r="471" hidden="1"/>
+    <row r="472" hidden="1"/>
+    <row r="473" hidden="1"/>
+    <row r="474" hidden="1"/>
+    <row r="475" hidden="1"/>
+    <row r="476" hidden="1"/>
+    <row r="477" hidden="1"/>
+    <row r="478" hidden="1"/>
+    <row r="479" hidden="1"/>
+    <row r="480" hidden="1"/>
+    <row r="481" hidden="1"/>
+    <row r="482" hidden="1"/>
+    <row r="483" hidden="1"/>
+    <row r="484" hidden="1"/>
+    <row r="485" hidden="1"/>
+    <row r="486" hidden="1"/>
+    <row r="487" hidden="1"/>
+    <row r="488" hidden="1"/>
+    <row r="489" hidden="1"/>
+    <row r="490" hidden="1"/>
+    <row r="491" hidden="1"/>
+    <row r="492" hidden="1"/>
+    <row r="493" hidden="1"/>
+    <row r="494" hidden="1"/>
+    <row r="495" hidden="1"/>
+    <row r="496" hidden="1"/>
+    <row r="497" hidden="1"/>
+    <row r="498" hidden="1"/>
+    <row r="499" hidden="1"/>
+    <row r="500" hidden="1"/>
+    <row r="501" hidden="1"/>
+    <row r="502" hidden="1"/>
+    <row r="503" hidden="1"/>
+    <row r="504" hidden="1"/>
+    <row r="505" hidden="1"/>
+    <row r="506" hidden="1"/>
+    <row r="507" hidden="1"/>
+    <row r="508" hidden="1"/>
+    <row r="509" hidden="1"/>
+    <row r="510" hidden="1"/>
+    <row r="511" hidden="1"/>
+    <row r="512" hidden="1"/>
+    <row r="513" hidden="1"/>
+    <row r="514" hidden="1"/>
+    <row r="515" hidden="1"/>
+    <row r="516" hidden="1"/>
+    <row r="517" hidden="1"/>
+    <row r="518" hidden="1"/>
+    <row r="519" hidden="1"/>
+    <row r="520" hidden="1"/>
+    <row r="521" hidden="1"/>
+    <row r="522" hidden="1"/>
+    <row r="523" hidden="1"/>
+    <row r="524" hidden="1"/>
+    <row r="525" hidden="1"/>
+    <row r="526" hidden="1"/>
+    <row r="527" hidden="1"/>
+    <row r="528" hidden="1"/>
+    <row r="529" hidden="1"/>
+    <row r="530" hidden="1"/>
+    <row r="531" hidden="1"/>
+    <row r="532" hidden="1"/>
+    <row r="533" hidden="1"/>
+    <row r="534" hidden="1"/>
+    <row r="535" hidden="1"/>
+    <row r="536" hidden="1"/>
+    <row r="537" hidden="1"/>
+    <row r="538" hidden="1"/>
+    <row r="539" hidden="1"/>
+    <row r="540" hidden="1"/>
+    <row r="541" hidden="1"/>
+    <row r="542" hidden="1"/>
+    <row r="543" hidden="1"/>
+    <row r="544" hidden="1"/>
+    <row r="545" hidden="1"/>
+    <row r="546" hidden="1"/>
+    <row r="547" hidden="1"/>
+    <row r="548" hidden="1"/>
+    <row r="549" hidden="1"/>
+    <row r="550" hidden="1"/>
+    <row r="551" hidden="1"/>
+    <row r="552" hidden="1"/>
+    <row r="553" hidden="1"/>
+    <row r="554" hidden="1"/>
+    <row r="555" hidden="1"/>
+    <row r="556" hidden="1"/>
+    <row r="557" hidden="1"/>
+    <row r="558" hidden="1"/>
+    <row r="559" hidden="1"/>
+    <row r="560" hidden="1"/>
+    <row r="561" hidden="1"/>
+    <row r="562" hidden="1"/>
+    <row r="563" hidden="1"/>
+    <row r="564" hidden="1"/>
+    <row r="565" hidden="1"/>
+    <row r="566" hidden="1"/>
+    <row r="567" hidden="1"/>
+    <row r="568" hidden="1"/>
+    <row r="569" hidden="1"/>
+    <row r="570" hidden="1"/>
+    <row r="571" hidden="1"/>
+    <row r="572" hidden="1"/>
+    <row r="573" hidden="1"/>
+    <row r="574" hidden="1"/>
+    <row r="575" hidden="1"/>
+    <row r="576" hidden="1"/>
+    <row r="577" hidden="1"/>
+    <row r="578" hidden="1"/>
+    <row r="579" hidden="1"/>
+    <row r="580" hidden="1"/>
+    <row r="581" hidden="1"/>
+    <row r="582" hidden="1"/>
+    <row r="583" hidden="1"/>
+    <row r="584" hidden="1"/>
+    <row r="585" hidden="1"/>
+    <row r="586" hidden="1"/>
+    <row r="587" hidden="1"/>
+    <row r="588" hidden="1"/>
+    <row r="589" hidden="1"/>
+    <row r="590" hidden="1"/>
+    <row r="591" hidden="1"/>
+    <row r="592" hidden="1"/>
+    <row r="593" hidden="1"/>
+    <row r="594" hidden="1"/>
+    <row r="595" hidden="1"/>
+    <row r="596" hidden="1"/>
+    <row r="597" hidden="1"/>
+    <row r="598" hidden="1"/>
+    <row r="599" hidden="1"/>
+    <row r="600" hidden="1"/>
+    <row r="601" hidden="1"/>
+    <row r="602" hidden="1"/>
+    <row r="603" hidden="1"/>
+    <row r="604" hidden="1"/>
+    <row r="605" hidden="1"/>
+    <row r="606" hidden="1"/>
+    <row r="607" hidden="1"/>
+    <row r="608" hidden="1"/>
+    <row r="609" hidden="1"/>
+    <row r="610" hidden="1"/>
+    <row r="611" hidden="1"/>
+    <row r="612" hidden="1"/>
+    <row r="613" hidden="1"/>
+    <row r="614" hidden="1"/>
+    <row r="615" hidden="1"/>
+    <row r="616" hidden="1"/>
+    <row r="617" hidden="1"/>
+    <row r="618" hidden="1"/>
+    <row r="619" hidden="1"/>
+    <row r="620" hidden="1"/>
+    <row r="621" hidden="1"/>
+    <row r="622" hidden="1"/>
+    <row r="623" hidden="1"/>
+    <row r="624" hidden="1"/>
+    <row r="625" hidden="1"/>
+    <row r="626" hidden="1"/>
+    <row r="627" hidden="1"/>
+    <row r="628" hidden="1"/>
+    <row r="629" hidden="1"/>
+    <row r="630" hidden="1"/>
+    <row r="631" hidden="1"/>
+    <row r="632" hidden="1"/>
+    <row r="633" hidden="1"/>
+    <row r="634" hidden="1"/>
+    <row r="635" hidden="1"/>
+    <row r="636" hidden="1"/>
+    <row r="637" hidden="1"/>
+    <row r="638" hidden="1"/>
+    <row r="639" hidden="1"/>
+    <row r="640" hidden="1"/>
+    <row r="641" hidden="1"/>
+    <row r="642" hidden="1"/>
+    <row r="643" hidden="1"/>
+    <row r="644" hidden="1"/>
+    <row r="645" hidden="1"/>
+    <row r="646" hidden="1"/>
+    <row r="647" hidden="1"/>
+    <row r="648" hidden="1"/>
+    <row r="649" hidden="1"/>
+    <row r="650" hidden="1"/>
+    <row r="651" hidden="1"/>
+    <row r="652" hidden="1"/>
+    <row r="653" hidden="1"/>
+    <row r="654" hidden="1"/>
+    <row r="655" hidden="1"/>
+    <row r="656" hidden="1"/>
+    <row r="657" hidden="1"/>
+    <row r="658" hidden="1"/>
+    <row r="659" hidden="1"/>
+    <row r="660" hidden="1"/>
+    <row r="661" hidden="1"/>
+    <row r="662" hidden="1"/>
+    <row r="663" hidden="1"/>
+    <row r="664" hidden="1"/>
+    <row r="665" hidden="1"/>
+    <row r="666" hidden="1"/>
+    <row r="667" hidden="1"/>
+    <row r="668" hidden="1"/>
+    <row r="669" hidden="1"/>
+    <row r="670" hidden="1"/>
+    <row r="671" hidden="1"/>
+    <row r="672" hidden="1"/>
+    <row r="673" hidden="1"/>
+    <row r="674" hidden="1"/>
+    <row r="675" hidden="1"/>
+    <row r="676" hidden="1"/>
+    <row r="677" hidden="1"/>
+    <row r="678" hidden="1"/>
+    <row r="679" hidden="1"/>
+    <row r="680" hidden="1"/>
+    <row r="681" hidden="1"/>
+    <row r="682" hidden="1"/>
+    <row r="683" hidden="1"/>
+    <row r="684" hidden="1"/>
+    <row r="685" hidden="1"/>
+    <row r="686" hidden="1"/>
+    <row r="687" hidden="1"/>
+    <row r="688" hidden="1"/>
+    <row r="689" hidden="1"/>
+    <row r="690" hidden="1"/>
+    <row r="691" hidden="1"/>
+    <row r="692" hidden="1"/>
+    <row r="693" hidden="1"/>
+    <row r="694" hidden="1"/>
+    <row r="695" hidden="1"/>
+    <row r="696" hidden="1"/>
+    <row r="697" hidden="1"/>
+    <row r="698" hidden="1"/>
+    <row r="699" hidden="1"/>
+    <row r="700" hidden="1"/>
+    <row r="701" hidden="1"/>
+    <row r="702" hidden="1"/>
+    <row r="703" hidden="1"/>
+    <row r="704" hidden="1"/>
+    <row r="705" hidden="1"/>
+    <row r="706" hidden="1"/>
+    <row r="707" hidden="1"/>
+    <row r="708" hidden="1"/>
+    <row r="709" hidden="1"/>
+    <row r="710" hidden="1"/>
+    <row r="711" hidden="1"/>
+    <row r="712" hidden="1"/>
+    <row r="713" hidden="1"/>
+    <row r="714" hidden="1"/>
+    <row r="715" hidden="1"/>
+    <row r="716" hidden="1"/>
+    <row r="717" hidden="1"/>
+    <row r="718" hidden="1"/>
+    <row r="719" hidden="1"/>
+    <row r="720" hidden="1"/>
+    <row r="721" hidden="1"/>
+    <row r="722" hidden="1"/>
+    <row r="723" hidden="1"/>
+    <row r="724" hidden="1"/>
+    <row r="725" hidden="1"/>
+    <row r="726" hidden="1"/>
+    <row r="727" hidden="1"/>
+    <row r="728" hidden="1"/>
+    <row r="729" hidden="1"/>
+    <row r="730" hidden="1"/>
+    <row r="731" hidden="1"/>
+    <row r="732" hidden="1"/>
+    <row r="733" hidden="1"/>
+    <row r="734" hidden="1"/>
+    <row r="735" hidden="1"/>
+    <row r="736" hidden="1"/>
+    <row r="737" hidden="1"/>
+    <row r="738" hidden="1"/>
+    <row r="739" hidden="1"/>
+    <row r="740" hidden="1"/>
+    <row r="741" hidden="1"/>
+    <row r="742" hidden="1"/>
+    <row r="743" hidden="1"/>
+    <row r="744" hidden="1"/>
+    <row r="745" hidden="1"/>
+    <row r="746" hidden="1"/>
+    <row r="747" hidden="1"/>
+    <row r="748" hidden="1"/>
+    <row r="749" hidden="1"/>
+    <row r="750" hidden="1"/>
+    <row r="751" hidden="1"/>
+    <row r="752" hidden="1"/>
+    <row r="753" hidden="1"/>
+    <row r="754" hidden="1"/>
+    <row r="755" hidden="1"/>
+    <row r="756" hidden="1"/>
+    <row r="757" hidden="1"/>
+    <row r="758" hidden="1"/>
+    <row r="759" hidden="1"/>
+    <row r="760" hidden="1"/>
+    <row r="761" hidden="1"/>
+    <row r="762" hidden="1"/>
+    <row r="763" hidden="1"/>
+    <row r="764" hidden="1"/>
+    <row r="765" hidden="1"/>
+    <row r="766" hidden="1"/>
+    <row r="767" hidden="1"/>
+    <row r="768" hidden="1"/>
+    <row r="769" hidden="1"/>
+    <row r="770" hidden="1"/>
+    <row r="771" hidden="1"/>
+    <row r="772" hidden="1"/>
+    <row r="773" hidden="1"/>
+    <row r="774" hidden="1"/>
+    <row r="775" hidden="1"/>
+    <row r="776" hidden="1"/>
+    <row r="777" hidden="1"/>
+    <row r="778" hidden="1"/>
+    <row r="779" hidden="1"/>
+    <row r="780" hidden="1"/>
+    <row r="781" hidden="1"/>
+    <row r="782" hidden="1"/>
+    <row r="783" hidden="1"/>
+    <row r="784" hidden="1"/>
+    <row r="785" hidden="1"/>
+    <row r="786" hidden="1"/>
+    <row r="787" hidden="1"/>
+    <row r="788" hidden="1"/>
+    <row r="789" hidden="1"/>
+    <row r="790" hidden="1"/>
+    <row r="791" hidden="1"/>
+    <row r="792" hidden="1"/>
+    <row r="793" hidden="1"/>
+    <row r="794" hidden="1"/>
+    <row r="795" hidden="1"/>
+    <row r="796" hidden="1"/>
+    <row r="797" hidden="1"/>
+    <row r="798" hidden="1"/>
+    <row r="799" hidden="1"/>
+    <row r="800" hidden="1"/>
+    <row r="801" hidden="1"/>
+    <row r="802" hidden="1"/>
+    <row r="803" hidden="1"/>
+    <row r="804" hidden="1"/>
+    <row r="805" hidden="1"/>
+    <row r="806" hidden="1"/>
+    <row r="807" hidden="1"/>
+    <row r="808" hidden="1"/>
+    <row r="809" hidden="1"/>
+    <row r="810" hidden="1"/>
+    <row r="811" hidden="1"/>
+    <row r="812" hidden="1"/>
+    <row r="813" hidden="1"/>
+    <row r="814" hidden="1"/>
+    <row r="815" hidden="1"/>
+    <row r="816" hidden="1"/>
+    <row r="817" hidden="1"/>
+    <row r="818" hidden="1"/>
+    <row r="819" hidden="1"/>
+    <row r="820" hidden="1"/>
+    <row r="821" hidden="1"/>
+    <row r="822" hidden="1"/>
+    <row r="823" hidden="1"/>
+    <row r="824" hidden="1"/>
+    <row r="825" hidden="1"/>
+    <row r="826" hidden="1"/>
+    <row r="827" hidden="1"/>
+    <row r="828" hidden="1"/>
+    <row r="829" hidden="1"/>
+    <row r="830" hidden="1"/>
+    <row r="831" hidden="1"/>
+    <row r="832" hidden="1"/>
+    <row r="833" hidden="1"/>
+    <row r="834" hidden="1"/>
+    <row r="835" hidden="1"/>
+    <row r="836" hidden="1"/>
+    <row r="837" hidden="1"/>
+    <row r="838" hidden="1"/>
+    <row r="839" hidden="1"/>
+    <row r="840" hidden="1"/>
+    <row r="841" hidden="1"/>
+    <row r="842" hidden="1"/>
+    <row r="843" hidden="1"/>
+    <row r="844" hidden="1"/>
+    <row r="845" hidden="1"/>
+    <row r="846" hidden="1"/>
+    <row r="847" hidden="1"/>
+    <row r="848" hidden="1"/>
+    <row r="849" hidden="1"/>
+    <row r="850" hidden="1"/>
+    <row r="851" hidden="1"/>
+    <row r="852" hidden="1"/>
+    <row r="853" hidden="1"/>
+    <row r="854" hidden="1"/>
+    <row r="855" hidden="1"/>
+    <row r="856" hidden="1"/>
+    <row r="857" hidden="1"/>
+    <row r="858" hidden="1"/>
+    <row r="859" hidden="1"/>
+    <row r="860" hidden="1"/>
+    <row r="861" hidden="1"/>
+    <row r="862" hidden="1"/>
+    <row r="863" hidden="1"/>
+    <row r="864" hidden="1"/>
+    <row r="865" hidden="1"/>
+    <row r="866" hidden="1"/>
+    <row r="867" hidden="1"/>
+    <row r="868" hidden="1"/>
+    <row r="869" hidden="1"/>
+    <row r="870" hidden="1"/>
+    <row r="871" hidden="1"/>
+    <row r="872" hidden="1"/>
+    <row r="873" hidden="1"/>
+    <row r="874" hidden="1"/>
+    <row r="875" hidden="1"/>
+    <row r="876" hidden="1"/>
+    <row r="877" hidden="1"/>
+    <row r="878" hidden="1"/>
+    <row r="879" hidden="1"/>
+    <row r="880" hidden="1"/>
+    <row r="881" hidden="1"/>
+    <row r="882" hidden="1"/>
+    <row r="883" hidden="1"/>
+    <row r="884" hidden="1"/>
+    <row r="885" hidden="1"/>
+    <row r="886" hidden="1"/>
+    <row r="887" hidden="1"/>
+    <row r="888" hidden="1"/>
+    <row r="889" hidden="1"/>
+    <row r="890" hidden="1"/>
+    <row r="891" hidden="1"/>
+    <row r="892" hidden="1"/>
+    <row r="893" hidden="1"/>
+    <row r="894" hidden="1"/>
+    <row r="895" hidden="1"/>
+    <row r="896" hidden="1"/>
+    <row r="897" hidden="1"/>
+    <row r="898" hidden="1"/>
+    <row r="899" hidden="1"/>
+    <row r="900" hidden="1"/>
+    <row r="901" hidden="1"/>
+    <row r="902" hidden="1"/>
+    <row r="903" hidden="1"/>
+    <row r="904" hidden="1"/>
+    <row r="905" hidden="1"/>
+    <row r="906" hidden="1"/>
+    <row r="907" hidden="1"/>
+    <row r="908" hidden="1"/>
+    <row r="909" hidden="1"/>
+    <row r="910" hidden="1"/>
+    <row r="911" hidden="1"/>
+    <row r="912" hidden="1"/>
+    <row r="913" hidden="1"/>
+    <row r="914" hidden="1"/>
+    <row r="915" hidden="1"/>
+    <row r="916" hidden="1"/>
+    <row r="917" hidden="1"/>
+    <row r="918" hidden="1"/>
+    <row r="919" hidden="1"/>
+    <row r="920" hidden="1"/>
+    <row r="921" hidden="1"/>
+    <row r="922" hidden="1"/>
+    <row r="923" hidden="1"/>
+    <row r="924" hidden="1"/>
+    <row r="925" hidden="1"/>
+    <row r="926" hidden="1"/>
+    <row r="927" hidden="1"/>
+    <row r="928" hidden="1"/>
+    <row r="929" hidden="1"/>
+    <row r="930" hidden="1"/>
+    <row r="931" hidden="1"/>
+    <row r="932" hidden="1"/>
+    <row r="933" hidden="1"/>
+    <row r="934" hidden="1"/>
+    <row r="935" hidden="1"/>
+    <row r="936" hidden="1"/>
+    <row r="937" hidden="1"/>
+    <row r="938" hidden="1"/>
+    <row r="939" hidden="1"/>
+    <row r="940" hidden="1"/>
+    <row r="941" hidden="1"/>
+    <row r="942" hidden="1"/>
+    <row r="943" hidden="1"/>
+    <row r="944" hidden="1"/>
+    <row r="945" hidden="1"/>
+    <row r="946" hidden="1"/>
+    <row r="947" hidden="1"/>
+    <row r="948" hidden="1"/>
+    <row r="949" hidden="1"/>
+    <row r="950" hidden="1"/>
+    <row r="951" hidden="1"/>
+    <row r="952" hidden="1"/>
+    <row r="953" hidden="1">
       <c r="Y953" s="4"/>
       <c r="Z953" s="4"/>
     </row>
-    <row r="954">
+    <row r="954" hidden="1">
       <c r="Y954" s="4"/>
       <c r="Z954" s="4"/>
       <c r="AA954" s="4"/>
       <c r="AB954" s="4"/>
     </row>
-    <row r="955">
+    <row r="955" hidden="1">
       <c r="Y955" s="4"/>
       <c r="Z955" s="4"/>
       <c r="AA955" s="4"/>
       <c r="AB955" s="4"/>
     </row>
-    <row r="956">
+    <row r="956" hidden="1">
       <c r="Y956" s="4"/>
       <c r="Z956" s="4"/>
       <c r="AA956" s="4"/>
       <c r="AB956" s="4"/>
     </row>
-    <row r="957">
+    <row r="957" hidden="1">
       <c r="Y957" s="4"/>
       <c r="Z957" s="4"/>
       <c r="AA957" s="4"/>
       <c r="AB957" s="4"/>
     </row>
-    <row r="958">
+    <row r="958" hidden="1">
       <c r="Y958" s="4"/>
       <c r="Z958" s="4"/>
       <c r="AA958" s="4"/>
       <c r="AB958" s="4"/>
     </row>
-    <row r="959">
+    <row r="959" hidden="1">
       <c r="Y959" s="4"/>
       <c r="Z959" s="4"/>
     </row>
-    <row r="960">
+    <row r="960" hidden="1">
       <c r="Y960" s="4"/>
       <c r="Z960" s="4"/>
     </row>
-    <row r="961">
+    <row r="961" hidden="1">
       <c r="Y961" s="4"/>
       <c r="Z961" s="4"/>
       <c r="AA961" s="4"/>
       <c r="AB961" s="4"/>
     </row>
-    <row r="962">
+    <row r="962" hidden="1">
       <c r="Y962" s="4"/>
       <c r="Z962" s="4"/>
       <c r="AA962" s="4"/>
       <c r="AB962" s="4"/>
     </row>
-    <row r="963">
+    <row r="963" hidden="1">
       <c r="Y963" s="4"/>
       <c r="Z963" s="4"/>
       <c r="AA963" s="4"/>
       <c r="AB963" s="4"/>
     </row>
-    <row r="964">
+    <row r="964" hidden="1">
       <c r="Y964" s="4"/>
       <c r="Z964" s="4"/>
       <c r="AA964" s="4"/>
       <c r="AB964" s="4"/>
     </row>
-    <row r="965">
+    <row r="965" hidden="1">
       <c r="Y965" s="4"/>
       <c r="Z965" s="4"/>
       <c r="AA965" s="4"/>
       <c r="AB965" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AB$965"/>
+  <autoFilter ref="$A$1:$AB$965">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Xiamen"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>